--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13295.54478291615</v>
+        <v>-23136.61353739539</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13723001.70096722</v>
+        <v>13574129.53912391</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2997039.853281277</v>
+        <v>3065834.74306052</v>
       </c>
     </row>
     <row r="11">
@@ -658,23 +658,23 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.05805425947912</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.05805425947912</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15.05805425947912</v>
+      </c>
+      <c r="G2" t="n">
         <v>13.26313419174921</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,76 +737,76 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>13.7425402420767</v>
+      </c>
+      <c r="S3" t="n">
         <v>15.05805425947912</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>14.57864820915163</v>
       </c>
       <c r="W3" t="n">
-        <v>13.26313419174921</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -916,52 +916,52 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.021643902788004</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>18.21830727030011</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.5517978991802437</v>
-      </c>
-      <c r="R5" t="n">
-        <v>15.49488714450009</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="V5" t="n">
         <v>18.21830727030011</v>
       </c>
-      <c r="T5" t="n">
+      <c r="W5" t="n">
         <v>18.21830727030011</v>
       </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>13.02504114089233</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -983,58 +983,58 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7155111496367801</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>16.04668504368034</v>
+      </c>
+      <c r="T6" t="n">
         <v>18.21830727030011</v>
       </c>
-      <c r="H6" t="n">
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>18.21830727030011</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10.44271547525859</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.888458418784959</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5891238419305923</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.5891238419305889</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.50971295904439</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>23.50971295904439</v>
+        <v>20.54879046072614</v>
       </c>
       <c r="D8" t="n">
-        <v>23.50971295904439</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="E8" t="n">
-        <v>20.7073551743263</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.1585647136001427</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>6.895205188827185</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.50971295904439</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="G9" t="n">
-        <v>23.50971295904439</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="H9" t="n">
-        <v>23.50971295904439</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10.03700156004394</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.775148425455178</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.382648484235649</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.801184543960288</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>3.183833028195925</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>30.47290791452697</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>64.54575719866727</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>13.04715655754852</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>26.84053729111535</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>26.84053729111535</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>12.88371534270434</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>76.72452921209074</v>
       </c>
       <c r="J13" t="n">
-        <v>6.193140908565965</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.291950357779633</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30.47290791452697</v>
+        <v>77.59291375621579</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.105877770346907</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>20.73465952076844</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>30.47290791452697</v>
+        <v>88.09368046800155</v>
       </c>
     </row>
     <row r="15">
@@ -1694,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>30.47290791452697</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="G15" t="n">
-        <v>30.47290791452697</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="H15" t="n">
-        <v>26.84053729111534</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>74.9684294176455</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>26.00896639306036</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>76.72452921209074</v>
       </c>
       <c r="J16" t="n">
-        <v>6.193140908565965</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.291950357779633</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>85.55513282065139</v>
+        <v>191.255994400369</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>82.90314704719353</v>
       </c>
       <c r="T17" t="n">
-        <v>191.2559944003689</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>85.55513282065156</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>191.2559944003689</v>
+        <v>191.255994400369</v>
       </c>
       <c r="Y17" t="n">
-        <v>191.2559944003689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.63376431607153</v>
       </c>
       <c r="H18" t="n">
-        <v>48.21166394479565</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>71.60506467971084</v>
       </c>
       <c r="T18" t="n">
         <v>138.5285367888426</v>
@@ -1982,7 +1982,7 @@
         <v>182.8889700571583</v>
       </c>
       <c r="V18" t="n">
-        <v>187.6894981379722</v>
+        <v>71.66233308698567</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>26.47880521537896</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>191.2559944003689</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>26.47880521537902</v>
+        <v>191.255994400369</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>191.255994400369</v>
+        <v>191.2559944003689</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>191.2559944003689</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T20" t="n">
-        <v>168.458279867845</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>191.2559944003689</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>85.55513282065139</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>182.8889700571583</v>
       </c>
       <c r="V21" t="n">
-        <v>191.255994400369</v>
+        <v>191.2559944003689</v>
       </c>
       <c r="W21" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>161.8425727710037</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.96410735702718</v>
+        <v>21.33113170023787</v>
       </c>
     </row>
     <row r="22">
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>26.47880521537902</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>191.255994400369</v>
+        <v>191.2559944003689</v>
       </c>
       <c r="W22" t="n">
-        <v>26.47880521537893</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>59.59318963572008</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>141.6365078667567</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>398.012519220714</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2383,10 +2383,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>155.6337801671284</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>110.0185321894191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>114.4694002772035</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.012519220714</v>
+        <v>292.6848104820112</v>
       </c>
       <c r="H26" t="n">
         <v>271.5073585269046</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H27" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570793</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H28" t="n">
         <v>133.2527378018481</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>131.2346897866122</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.876013344845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,19 +2797,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>256.624927218271</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H29" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T29" t="n">
         <v>208.7218148893222</v>
@@ -2851,13 +2851,13 @@
         <v>255.5887081042933</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>132.6620043037889</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H30" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570793</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.82042628441735</v>
+        <v>57.82042628441737</v>
       </c>
       <c r="T30" t="n">
         <v>135.5372539824022</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>109.8899072605606</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T31" t="n">
-        <v>85.93802506833823</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>25.09458317884009</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>285.9146614692356</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>91.89163974602971</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H33" t="n">
         <v>41.04430296570798</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T33" t="n">
         <v>135.5372539824022</v>
@@ -3189,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>169.7775958326054</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>106.5406371297244</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,16 +3271,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>261.6420333092973</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H35" t="n">
         <v>271.5073585269046</v>
@@ -3319,7 +3319,7 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T35" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>255.5887081042933</v>
@@ -3328,13 +3328,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>71.77544258659553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>91.89163974602971</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H36" t="n">
         <v>41.04430296570798</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.6337801671284</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>62.66616493811519</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>392.7044641036935</v>
+        <v>342.5610119007812</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T38" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H40" t="n">
         <v>133.2527378018481</v>
       </c>
       <c r="I40" t="n">
-        <v>36.52485803075731</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>213.1672372904629</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>240.7062767956599</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.012519220714</v>
@@ -3793,19 +3793,19 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>297.0693791373521</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3833,10 +3833,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>91.89163974602977</v>
+        <v>91.89163974602971</v>
       </c>
       <c r="H42" t="n">
-        <v>41.04430296570793</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>175.4906161884977</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T43" t="n">
-        <v>80.04164636715049</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>154.0098296459632</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>137.525298109128</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.012519220714</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>59.65781469870555</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>76.09275956332802</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.20464434075833</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="C2" t="n">
-        <v>1.20464434075833</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="D2" t="n">
-        <v>1.20464434075833</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="E2" t="n">
-        <v>1.20464434075833</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="F2" t="n">
-        <v>1.20464434075833</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="G2" t="n">
         <v>1.20464434075833</v>
@@ -4333,10 +4333,10 @@
         <v>1.20464434075833</v>
       </c>
       <c r="K2" t="n">
-        <v>3.44233071783488</v>
+        <v>3.442330717834865</v>
       </c>
       <c r="L2" t="n">
-        <v>12.21491484027814</v>
+        <v>12.21491484027812</v>
       </c>
       <c r="M2" t="n">
         <v>27.12238855716245</v>
@@ -4345,7 +4345,7 @@
         <v>42.02986227404679</v>
       </c>
       <c r="O2" t="n">
-        <v>54.87532469310606</v>
+        <v>54.87532469310607</v>
       </c>
       <c r="P2" t="n">
         <v>60.2322170379165</v>
@@ -4366,16 +4366,16 @@
         <v>60.2322170379165</v>
       </c>
       <c r="V2" t="n">
-        <v>45.02206122026082</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="W2" t="n">
-        <v>29.81190540260513</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="X2" t="n">
-        <v>14.60174958494945</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.60174958494945</v>
+        <v>60.2322170379165</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>1.20464434075833</v>
       </c>
       <c r="K3" t="n">
-        <v>4.598115868451898</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L3" t="n">
-        <v>15.68392071428627</v>
+        <v>13.29499852785217</v>
       </c>
       <c r="M3" t="n">
-        <v>30.59139443117061</v>
+        <v>28.2024722447365</v>
       </c>
       <c r="N3" t="n">
-        <v>45.49886814805494</v>
+        <v>43.10994596162083</v>
       </c>
       <c r="O3" t="n">
-        <v>60.2322170379165</v>
+        <v>57.8432948514824</v>
       </c>
       <c r="P3" t="n">
         <v>60.2322170379165</v>
@@ -4433,28 +4433,28 @@
         <v>60.2322170379165</v>
       </c>
       <c r="R3" t="n">
-        <v>60.2322170379165</v>
+        <v>46.35086325804104</v>
       </c>
       <c r="S3" t="n">
-        <v>60.2322170379165</v>
+        <v>31.14070744038536</v>
       </c>
       <c r="T3" t="n">
-        <v>60.2322170379165</v>
+        <v>31.14070744038536</v>
       </c>
       <c r="U3" t="n">
-        <v>60.2322170379165</v>
+        <v>15.93055162272967</v>
       </c>
       <c r="V3" t="n">
-        <v>60.2322170379165</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W3" t="n">
-        <v>46.83511179372537</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X3" t="n">
-        <v>31.62495597606969</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.41480015841401</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="4">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.85979515768473</v>
+        <v>4.50963013999573</v>
       </c>
       <c r="C5" t="n">
-        <v>19.85979515768473</v>
+        <v>4.50963013999573</v>
       </c>
       <c r="D5" t="n">
-        <v>19.85979515768473</v>
+        <v>4.50963013999573</v>
       </c>
       <c r="E5" t="n">
-        <v>19.85979515768473</v>
+        <v>4.50963013999573</v>
       </c>
       <c r="F5" t="n">
-        <v>19.85979515768473</v>
+        <v>4.50963013999573</v>
       </c>
       <c r="G5" t="n">
-        <v>19.85979515768473</v>
+        <v>4.50963013999573</v>
       </c>
       <c r="H5" t="n">
-        <v>19.85979515768473</v>
+        <v>4.50963013999573</v>
       </c>
       <c r="I5" t="n">
-        <v>1.457464581624009</v>
+        <v>4.50963013999573</v>
       </c>
       <c r="J5" t="n">
         <v>1.457464581624009</v>
       </c>
       <c r="K5" t="n">
-        <v>5.219099475992273</v>
+        <v>5.219099475992266</v>
       </c>
       <c r="L5" t="n">
-        <v>15.88227649088182</v>
+        <v>15.88227649088181</v>
       </c>
       <c r="M5" t="n">
         <v>32.89339907886389</v>
       </c>
       <c r="N5" t="n">
-        <v>50.929523276461</v>
+        <v>50.92952327646103</v>
       </c>
       <c r="O5" t="n">
         <v>65.79354395927301</v>
@@ -4588,31 +4588,31 @@
         <v>72.87322908120045</v>
       </c>
       <c r="Q5" t="n">
-        <v>72.31585746586687</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="R5" t="n">
-        <v>56.66445630980617</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="S5" t="n">
-        <v>38.26212573374545</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="T5" t="n">
-        <v>19.85979515768473</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="U5" t="n">
-        <v>19.85979515768473</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="V5" t="n">
-        <v>19.85979515768473</v>
+        <v>36.06856792907901</v>
       </c>
       <c r="W5" t="n">
-        <v>19.85979515768473</v>
+        <v>17.66623735301829</v>
       </c>
       <c r="X5" t="n">
-        <v>19.85979515768473</v>
+        <v>4.50963013999573</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.85979515768473</v>
+        <v>4.50963013999573</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.87322908120045</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="C6" t="n">
-        <v>72.87322908120045</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="D6" t="n">
-        <v>72.87322908120045</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="E6" t="n">
-        <v>72.1504905462138</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="F6" t="n">
-        <v>53.74815997015308</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G6" t="n">
-        <v>35.34582939409236</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H6" t="n">
-        <v>16.94349881803164</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I6" t="n">
-        <v>6.395301368275483</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J6" t="n">
         <v>1.457464581624009</v>
       </c>
       <c r="K6" t="n">
-        <v>5.886021080118655</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="L6" t="n">
-        <v>19.36817474787379</v>
+        <v>10.63528474396712</v>
       </c>
       <c r="M6" t="n">
-        <v>37.40429894547091</v>
+        <v>28.67140894156423</v>
       </c>
       <c r="N6" t="n">
-        <v>46.70753313916133</v>
+        <v>46.70753313916134</v>
       </c>
       <c r="O6" t="n">
-        <v>62.96599962173946</v>
+        <v>62.96599962173947</v>
       </c>
       <c r="P6" t="n">
         <v>72.87322908120045</v>
@@ -4673,25 +4673,25 @@
         <v>72.87322908120045</v>
       </c>
       <c r="S6" t="n">
-        <v>72.87322908120045</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="T6" t="n">
-        <v>72.87322908120045</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="U6" t="n">
-        <v>72.87322908120045</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="V6" t="n">
-        <v>72.87322908120045</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="W6" t="n">
-        <v>72.87322908120045</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="X6" t="n">
-        <v>72.87322908120045</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="Y6" t="n">
-        <v>72.87322908120045</v>
+        <v>19.85979515768473</v>
       </c>
     </row>
     <row r="7">
@@ -4737,31 +4737,31 @@
         <v>1.457464581624009</v>
       </c>
       <c r="N7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="O7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="P7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="R7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="S7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="T7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="U7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="V7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="W7" t="n">
         <v>1.457464581624009</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70.29166702906201</v>
+        <v>70.13150065168809</v>
       </c>
       <c r="C8" t="n">
-        <v>46.54448222194647</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="D8" t="n">
-        <v>22.79729741483092</v>
+        <v>25.62796184383908</v>
       </c>
       <c r="E8" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="F8" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="G8" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H8" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I8" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J8" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K8" t="n">
-        <v>8.4159116854429</v>
+        <v>8.415911685442902</v>
       </c>
       <c r="L8" t="n">
-        <v>22.51986039522949</v>
+        <v>22.51986039522947</v>
       </c>
       <c r="M8" t="n">
-        <v>43.35950445951397</v>
+        <v>43.35950445951394</v>
       </c>
       <c r="N8" t="n">
-        <v>65.28609961349602</v>
+        <v>65.28609961349599</v>
       </c>
       <c r="O8" t="n">
-        <v>83.8237816996544</v>
+        <v>83.82378169965436</v>
       </c>
       <c r="P8" t="n">
-        <v>94.03885183617756</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q8" t="n">
-        <v>94.03885183617756</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="R8" t="n">
-        <v>94.03885183617756</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="S8" t="n">
-        <v>94.03885183617756</v>
+        <v>70.13150065168809</v>
       </c>
       <c r="T8" t="n">
-        <v>94.03885183617756</v>
+        <v>70.13150065168809</v>
       </c>
       <c r="U8" t="n">
-        <v>94.03885183617756</v>
+        <v>70.13150065168809</v>
       </c>
       <c r="V8" t="n">
-        <v>94.03885183617756</v>
+        <v>70.13150065168809</v>
       </c>
       <c r="W8" t="n">
-        <v>94.03885183617756</v>
+        <v>70.13150065168809</v>
       </c>
       <c r="X8" t="n">
-        <v>94.03885183617756</v>
+        <v>70.13150065168809</v>
       </c>
       <c r="Y8" t="n">
-        <v>94.03885183617756</v>
+        <v>70.13150065168809</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94.03885183617756</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="C9" t="n">
-        <v>94.03885183617756</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="D9" t="n">
-        <v>94.03885183617756</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="E9" t="n">
-        <v>87.07399811008949</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="F9" t="n">
-        <v>63.32681330297395</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="G9" t="n">
-        <v>39.57962849585841</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H9" t="n">
-        <v>15.83244368874286</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I9" t="n">
-        <v>5.694058274557065</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J9" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K9" t="n">
-        <v>8.193129398185485</v>
+        <v>8.19312939818548</v>
       </c>
       <c r="L9" t="n">
-        <v>24.20827907854881</v>
+        <v>24.2082790785488</v>
       </c>
       <c r="M9" t="n">
-        <v>46.0426944477166</v>
+        <v>46.04269444771658</v>
       </c>
       <c r="N9" t="n">
-        <v>69.31731027717055</v>
+        <v>69.31731027717052</v>
       </c>
       <c r="O9" t="n">
-        <v>88.3514041649796</v>
+        <v>88.35140416497956</v>
       </c>
       <c r="P9" t="n">
-        <v>94.03885183617756</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.03885183617756</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="R9" t="n">
-        <v>94.03885183617756</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="S9" t="n">
-        <v>94.03885183617756</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="T9" t="n">
-        <v>94.03885183617756</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="U9" t="n">
-        <v>94.03885183617756</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="V9" t="n">
-        <v>94.03885183617756</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="W9" t="n">
-        <v>94.03885183617756</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="X9" t="n">
-        <v>94.03885183617756</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="Y9" t="n">
-        <v>94.03885183617756</v>
+        <v>46.54448222194644</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="C10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="D10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="E10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="F10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="G10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="L10" t="n">
-        <v>2.170301745874839</v>
+        <v>2.170301745874834</v>
       </c>
       <c r="M10" t="n">
-        <v>3.005035947119213</v>
+        <v>3.005035947119205</v>
       </c>
       <c r="N10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="O10" t="n">
-        <v>3.700155363956165</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="P10" t="n">
-        <v>1.880777036723551</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.880777036723551</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="R10" t="n">
-        <v>1.880777036723551</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="S10" t="n">
-        <v>1.880777036723551</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="T10" t="n">
-        <v>1.880777036723551</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="U10" t="n">
-        <v>1.880777036723551</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="V10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="W10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="X10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.88077703672355</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.21854769834092</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="C11" t="n">
-        <v>2.437832633162158</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="D11" t="n">
-        <v>2.437832633162158</v>
+        <v>198.1934717036539</v>
       </c>
       <c r="E11" t="n">
-        <v>2.437832633162158</v>
+        <v>109.2099560794099</v>
       </c>
       <c r="F11" t="n">
-        <v>2.437832633162158</v>
+        <v>20.22644045516591</v>
       </c>
       <c r="G11" t="n">
-        <v>2.437832633162158</v>
+        <v>20.22644045516591</v>
       </c>
       <c r="H11" t="n">
-        <v>2.437832633162158</v>
+        <v>20.22644045516591</v>
       </c>
       <c r="I11" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J11" t="n">
-        <v>3.417978136102533</v>
+        <v>24.78252049490587</v>
       </c>
       <c r="K11" t="n">
-        <v>13.13197138347077</v>
+        <v>59.60773643878167</v>
       </c>
       <c r="L11" t="n">
-        <v>31.17957527878673</v>
+        <v>108.8080325753179</v>
       </c>
       <c r="M11" t="n">
-        <v>56.40729559797725</v>
+        <v>168.6991254940436</v>
       </c>
       <c r="N11" t="n">
-        <v>82.79297066826217</v>
+        <v>230.3090627719646</v>
       </c>
       <c r="O11" t="n">
-        <v>105.5412354747657</v>
+        <v>286.3185995386594</v>
       </c>
       <c r="P11" t="n">
-        <v>119.3499405478292</v>
+        <v>328.5150307030227</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.8916316581079</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="R11" t="n">
-        <v>121.8916316581079</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="S11" t="n">
-        <v>121.8916316581079</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="T11" t="n">
-        <v>91.11091659292913</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="U11" t="n">
-        <v>63.99926276351968</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="V11" t="n">
-        <v>63.99926276351968</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="W11" t="n">
-        <v>33.21854769834092</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="X11" t="n">
-        <v>33.21854769834092</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="Y11" t="n">
-        <v>33.21854769834092</v>
+        <v>352.3747218720062</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.437832633162158</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="C12" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="D12" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="E12" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="F12" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="G12" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="H12" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="I12" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J12" t="n">
-        <v>2.437832633162158</v>
+        <v>14.55245432966378</v>
       </c>
       <c r="K12" t="n">
-        <v>10.90930567516435</v>
+        <v>40.07978517569846</v>
       </c>
       <c r="L12" t="n">
-        <v>29.82765956255554</v>
+        <v>81.93184470419645</v>
       </c>
       <c r="M12" t="n">
-        <v>55.04997730602895</v>
+        <v>133.9167152178292</v>
       </c>
       <c r="N12" t="n">
-        <v>83.28125954763226</v>
+        <v>189.6188753669568</v>
       </c>
       <c r="O12" t="n">
-        <v>105.4966506502407</v>
+        <v>236.9647528833238</v>
       </c>
       <c r="P12" t="n">
-        <v>120.1848372890272</v>
+        <v>271.8223704119702</v>
       </c>
       <c r="Q12" t="n">
-        <v>121.8916316581079</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="R12" t="n">
-        <v>121.8916316581079</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="S12" t="n">
-        <v>94.77997782869845</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="T12" t="n">
-        <v>63.99926276351968</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="U12" t="n">
-        <v>33.21854769834092</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="V12" t="n">
-        <v>2.437832633162158</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="W12" t="n">
-        <v>2.437832633162158</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="X12" t="n">
-        <v>2.437832633162158</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.437832633162158</v>
+        <v>185.0145256859281</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="C13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="D13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="E13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="F13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="G13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="H13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="I13" t="n">
-        <v>11.00863189209711</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J13" t="n">
-        <v>4.752934004656737</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="K13" t="n">
-        <v>2.437832633162158</v>
+        <v>15.06648958421999</v>
       </c>
       <c r="L13" t="n">
-        <v>4.393946466374034</v>
+        <v>30.18773465530782</v>
       </c>
       <c r="M13" t="n">
-        <v>6.985865225902416</v>
+        <v>46.66043841756918</v>
       </c>
       <c r="N13" t="n">
-        <v>10.79300191026905</v>
+        <v>64.01830606238379</v>
       </c>
       <c r="O13" t="n">
-        <v>11.00863189209711</v>
+        <v>76.75022933554703</v>
       </c>
       <c r="P13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="R13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="S13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="T13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="U13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="V13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="W13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="X13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60.33020152775036</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="C14" t="n">
-        <v>60.33020152775036</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="D14" t="n">
-        <v>60.33020152775036</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="E14" t="n">
-        <v>60.33020152775036</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="F14" t="n">
-        <v>60.33020152775036</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="G14" t="n">
-        <v>54.16264822436965</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="H14" t="n">
-        <v>23.38193315919088</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="I14" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J14" t="n">
-        <v>3.417978136102557</v>
+        <v>24.7825204949059</v>
       </c>
       <c r="K14" t="n">
-        <v>13.13197138347078</v>
+        <v>59.60773643878169</v>
       </c>
       <c r="L14" t="n">
-        <v>31.17957527878672</v>
+        <v>108.8080325753178</v>
       </c>
       <c r="M14" t="n">
-        <v>56.40729559797724</v>
+        <v>168.6991254940436</v>
       </c>
       <c r="N14" t="n">
-        <v>82.79297066826219</v>
+        <v>230.3090627719646</v>
       </c>
       <c r="O14" t="n">
-        <v>105.5412354747657</v>
+        <v>286.3185995386593</v>
       </c>
       <c r="P14" t="n">
-        <v>119.3499405478293</v>
+        <v>328.5150307030227</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.8916316581079</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="R14" t="n">
-        <v>121.8916316581079</v>
+        <v>352.3747218720062</v>
       </c>
       <c r="S14" t="n">
-        <v>121.8916316581079</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="T14" t="n">
-        <v>121.8916316581079</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="U14" t="n">
-        <v>121.8916316581079</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="V14" t="n">
-        <v>121.8916316581079</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="W14" t="n">
-        <v>121.8916316581079</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="X14" t="n">
-        <v>121.8916316581079</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.11091659292913</v>
+        <v>85.42417499927426</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>121.8916316581079</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="C15" t="n">
-        <v>121.8916316581079</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="D15" t="n">
-        <v>121.8916316581079</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="E15" t="n">
-        <v>91.11091659292913</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="F15" t="n">
-        <v>60.33020152775036</v>
+        <v>96.03101006168411</v>
       </c>
       <c r="G15" t="n">
-        <v>29.5494864625716</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="H15" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="I15" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J15" t="n">
-        <v>2.437832633162124</v>
+        <v>14.55245432966378</v>
       </c>
       <c r="K15" t="n">
-        <v>10.90930567516431</v>
+        <v>40.07978517569846</v>
       </c>
       <c r="L15" t="n">
-        <v>29.82765956255551</v>
+        <v>81.93184470419645</v>
       </c>
       <c r="M15" t="n">
-        <v>55.04997730602892</v>
+        <v>133.9167152178292</v>
       </c>
       <c r="N15" t="n">
-        <v>83.28125954763223</v>
+        <v>189.6188753669568</v>
       </c>
       <c r="O15" t="n">
-        <v>105.4966506502406</v>
+        <v>236.9647528833238</v>
       </c>
       <c r="P15" t="n">
-        <v>120.1848372890272</v>
+        <v>271.8223704119702</v>
       </c>
       <c r="Q15" t="n">
-        <v>121.8916316581079</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="R15" t="n">
-        <v>121.8916316581079</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="S15" t="n">
-        <v>121.8916316581079</v>
+        <v>211.2862089112416</v>
       </c>
       <c r="T15" t="n">
-        <v>121.8916316581079</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="U15" t="n">
-        <v>121.8916316581079</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="V15" t="n">
-        <v>121.8916316581079</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="W15" t="n">
-        <v>121.8916316581079</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="X15" t="n">
-        <v>121.8916316581079</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="Y15" t="n">
-        <v>121.8916316581079</v>
+        <v>185.0145256859281</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="C16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="D16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="E16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="F16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="G16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="H16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="I16" t="n">
-        <v>11.00863189209711</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="J16" t="n">
-        <v>4.752934004656737</v>
+        <v>7.047494437440124</v>
       </c>
       <c r="K16" t="n">
-        <v>2.437832633162158</v>
+        <v>15.06648958421999</v>
       </c>
       <c r="L16" t="n">
-        <v>4.393946466374034</v>
+        <v>30.18773465530782</v>
       </c>
       <c r="M16" t="n">
-        <v>6.985865225902416</v>
+        <v>46.66043841756918</v>
       </c>
       <c r="N16" t="n">
-        <v>10.79300191026905</v>
+        <v>64.01830606238379</v>
       </c>
       <c r="O16" t="n">
-        <v>11.00863189209711</v>
+        <v>76.75022933554703</v>
       </c>
       <c r="P16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="R16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="S16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="T16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="U16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="V16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="W16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="X16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409745</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.7198056334956</v>
+        <v>401.6762258154013</v>
       </c>
       <c r="C17" t="n">
-        <v>101.7198056334956</v>
+        <v>401.6762258154013</v>
       </c>
       <c r="D17" t="n">
-        <v>101.7198056334956</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="E17" t="n">
-        <v>101.7198056334956</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="F17" t="n">
-        <v>101.7198056334956</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="G17" t="n">
-        <v>101.7198056334956</v>
+        <v>208.4883526837154</v>
       </c>
       <c r="H17" t="n">
-        <v>15.30047955202951</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="I17" t="n">
-        <v>15.30047955202951</v>
+        <v>15.30047955202953</v>
       </c>
       <c r="J17" t="n">
-        <v>61.47172875552917</v>
+        <v>61.47172875552951</v>
       </c>
       <c r="K17" t="n">
-        <v>138.9154718648985</v>
+        <v>138.9154718648989</v>
       </c>
       <c r="L17" t="n">
-        <v>240.9878195381905</v>
+        <v>240.987819538191</v>
       </c>
       <c r="M17" t="n">
-        <v>359.7092571452448</v>
+        <v>359.7092571452453</v>
       </c>
       <c r="N17" t="n">
-        <v>481.1014755937832</v>
+        <v>481.1014755937837</v>
       </c>
       <c r="O17" t="n">
-        <v>593.5617252439822</v>
+        <v>593.5617252439828</v>
       </c>
       <c r="P17" t="n">
-        <v>683.9375338210154</v>
+        <v>683.937533821016</v>
       </c>
       <c r="Q17" t="n">
-        <v>743.9779309475095</v>
+        <v>743.97793094751</v>
       </c>
       <c r="R17" t="n">
-        <v>765.0239776014756</v>
+        <v>765.0239776014761</v>
       </c>
       <c r="S17" t="n">
-        <v>681.2834250285529</v>
+        <v>681.2834250285533</v>
       </c>
       <c r="T17" t="n">
-        <v>488.0955518968671</v>
+        <v>681.2834250285533</v>
       </c>
       <c r="U17" t="n">
-        <v>488.0955518968671</v>
+        <v>681.2834250285533</v>
       </c>
       <c r="V17" t="n">
-        <v>488.0955518968671</v>
+        <v>594.8640989470871</v>
       </c>
       <c r="W17" t="n">
-        <v>488.0955518968671</v>
+        <v>594.8640989470871</v>
       </c>
       <c r="X17" t="n">
-        <v>294.9076787651813</v>
+        <v>401.6762258154013</v>
       </c>
       <c r="Y17" t="n">
-        <v>101.7198056334956</v>
+        <v>401.6762258154013</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>63.99913000131806</v>
+        <v>108.8699384571523</v>
       </c>
       <c r="C18" t="n">
-        <v>63.99913000131806</v>
+        <v>108.8699384571523</v>
       </c>
       <c r="D18" t="n">
-        <v>63.99913000131806</v>
+        <v>108.8699384571523</v>
       </c>
       <c r="E18" t="n">
-        <v>63.99913000131806</v>
+        <v>108.8699384571523</v>
       </c>
       <c r="F18" t="n">
-        <v>63.99913000131806</v>
+        <v>108.8699384571523</v>
       </c>
       <c r="G18" t="n">
-        <v>63.99913000131806</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="H18" t="n">
-        <v>15.30047955202951</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="I18" t="n">
-        <v>15.63279539966779</v>
+        <v>15.63279539966781</v>
       </c>
       <c r="J18" t="n">
-        <v>40.07417499003833</v>
+        <v>40.07417499003835</v>
       </c>
       <c r="K18" t="n">
-        <v>94.5485446934461</v>
+        <v>94.54854469344613</v>
       </c>
       <c r="L18" t="n">
         <v>175.3234702521545</v>
       </c>
       <c r="M18" t="n">
-        <v>272.7294895500565</v>
+        <v>272.7294895500566</v>
       </c>
       <c r="N18" t="n">
         <v>375.0549611369267</v>
@@ -5612,34 +5612,34 @@
         <v>465.052060015597</v>
       </c>
       <c r="P18" t="n">
-        <v>534.1410428855886</v>
+        <v>534.1410428855887</v>
       </c>
       <c r="Q18" t="n">
-        <v>572.2133288600024</v>
+        <v>572.2133288600025</v>
       </c>
       <c r="R18" t="n">
-        <v>578.2486299851294</v>
+        <v>578.2486299851295</v>
       </c>
       <c r="S18" t="n">
-        <v>578.2486299851294</v>
+        <v>505.9202818238054</v>
       </c>
       <c r="T18" t="n">
-        <v>438.3208150469045</v>
+        <v>365.9924668855806</v>
       </c>
       <c r="U18" t="n">
-        <v>253.5844816558355</v>
+        <v>181.2561334945116</v>
       </c>
       <c r="V18" t="n">
-        <v>63.99913000131806</v>
+        <v>108.8699384571523</v>
       </c>
       <c r="W18" t="n">
-        <v>63.99913000131806</v>
+        <v>108.8699384571523</v>
       </c>
       <c r="X18" t="n">
-        <v>63.99913000131806</v>
+        <v>108.8699384571523</v>
       </c>
       <c r="Y18" t="n">
-        <v>63.99913000131806</v>
+        <v>108.8699384571523</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.30047955202951</v>
+        <v>42.0467474463517</v>
       </c>
       <c r="C19" t="n">
-        <v>15.30047955202951</v>
+        <v>42.0467474463517</v>
       </c>
       <c r="D19" t="n">
-        <v>15.30047955202951</v>
+        <v>42.0467474463517</v>
       </c>
       <c r="E19" t="n">
-        <v>15.30047955202951</v>
+        <v>42.0467474463517</v>
       </c>
       <c r="F19" t="n">
-        <v>15.30047955202951</v>
+        <v>42.0467474463517</v>
       </c>
       <c r="G19" t="n">
-        <v>15.30047955202951</v>
+        <v>42.0467474463517</v>
       </c>
       <c r="H19" t="n">
-        <v>15.30047955202951</v>
+        <v>42.0467474463517</v>
       </c>
       <c r="I19" t="n">
-        <v>15.30047955202951</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="J19" t="n">
-        <v>23.00527047835666</v>
+        <v>23.00527047835667</v>
       </c>
       <c r="K19" t="n">
-        <v>48.48500502844414</v>
+        <v>48.48500502844416</v>
       </c>
       <c r="L19" t="n">
-        <v>85.94998501359245</v>
+        <v>85.94998501359248</v>
       </c>
       <c r="M19" t="n">
         <v>125.9810244199253</v>
@@ -5688,37 +5688,37 @@
         <v>166.3370631426646</v>
       </c>
       <c r="O19" t="n">
-        <v>200.311519768146</v>
+        <v>200.3115197681461</v>
       </c>
       <c r="P19" t="n">
-        <v>226.2849663706404</v>
+        <v>226.2849663706405</v>
       </c>
       <c r="Q19" t="n">
-        <v>235.2346205780375</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="R19" t="n">
-        <v>235.2346205780375</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="S19" t="n">
-        <v>235.2346205780375</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="T19" t="n">
-        <v>42.04674744635176</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="U19" t="n">
-        <v>42.04674744635176</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="V19" t="n">
-        <v>15.30047955202951</v>
+        <v>42.0467474463517</v>
       </c>
       <c r="W19" t="n">
-        <v>15.30047955202951</v>
+        <v>42.0467474463517</v>
       </c>
       <c r="X19" t="n">
-        <v>15.30047955202951</v>
+        <v>42.0467474463517</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.30047955202951</v>
+        <v>42.0467474463517</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>401.6762258154014</v>
+        <v>401.676225815401</v>
       </c>
       <c r="C20" t="n">
-        <v>208.4883526837154</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="D20" t="n">
-        <v>208.4883526837154</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="E20" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="F20" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="G20" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="H20" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="I20" t="n">
-        <v>15.30047955202953</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="J20" t="n">
-        <v>61.4717287555294</v>
+        <v>61.47172875552916</v>
       </c>
       <c r="K20" t="n">
-        <v>138.9154718648987</v>
+        <v>138.9154718648984</v>
       </c>
       <c r="L20" t="n">
-        <v>240.9878195381909</v>
+        <v>240.9878195381907</v>
       </c>
       <c r="M20" t="n">
-        <v>359.7092571452451</v>
+        <v>359.7092571452449</v>
       </c>
       <c r="N20" t="n">
-        <v>481.1014755937836</v>
+        <v>481.1014755937833</v>
       </c>
       <c r="O20" t="n">
-        <v>593.5617252439827</v>
+        <v>593.5617252439823</v>
       </c>
       <c r="P20" t="n">
-        <v>683.937533821016</v>
+        <v>683.9375338210156</v>
       </c>
       <c r="Q20" t="n">
-        <v>743.9779309475101</v>
+        <v>743.9779309475097</v>
       </c>
       <c r="R20" t="n">
-        <v>765.0239776014762</v>
+        <v>765.0239776014756</v>
       </c>
       <c r="S20" t="n">
-        <v>765.0239776014762</v>
+        <v>681.2834250285529</v>
       </c>
       <c r="T20" t="n">
-        <v>594.8640989470873</v>
+        <v>681.2834250285529</v>
       </c>
       <c r="U20" t="n">
-        <v>594.8640989470873</v>
+        <v>488.0955518968671</v>
       </c>
       <c r="V20" t="n">
-        <v>594.8640989470873</v>
+        <v>488.0955518968671</v>
       </c>
       <c r="W20" t="n">
-        <v>594.8640989470873</v>
+        <v>401.676225815401</v>
       </c>
       <c r="X20" t="n">
-        <v>594.8640989470873</v>
+        <v>401.676225815401</v>
       </c>
       <c r="Y20" t="n">
-        <v>594.8640989470873</v>
+        <v>401.676225815401</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="C21" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="D21" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="E21" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="F21" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="G21" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="H21" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="I21" t="n">
-        <v>15.63279539966781</v>
+        <v>15.63279539966779</v>
       </c>
       <c r="J21" t="n">
-        <v>40.07417499003836</v>
+        <v>40.07417499003833</v>
       </c>
       <c r="K21" t="n">
-        <v>94.54854469344615</v>
+        <v>94.54854469344609</v>
       </c>
       <c r="L21" t="n">
-        <v>175.3234702521546</v>
+        <v>175.3234702521544</v>
       </c>
       <c r="M21" t="n">
-        <v>272.7294895500567</v>
+        <v>272.7294895500565</v>
       </c>
       <c r="N21" t="n">
-        <v>375.0549611369269</v>
+        <v>375.0549611369267</v>
       </c>
       <c r="O21" t="n">
-        <v>465.0520600155971</v>
+        <v>465.0520600155969</v>
       </c>
       <c r="P21" t="n">
-        <v>534.1410428855888</v>
+        <v>534.1410428855886</v>
       </c>
       <c r="Q21" t="n">
-        <v>572.2133288600027</v>
+        <v>572.2133288600024</v>
       </c>
       <c r="R21" t="n">
-        <v>578.2486299851296</v>
+        <v>578.2486299851294</v>
       </c>
       <c r="S21" t="n">
-        <v>578.2486299851296</v>
+        <v>578.2486299851294</v>
       </c>
       <c r="T21" t="n">
-        <v>578.2486299851296</v>
+        <v>578.2486299851294</v>
       </c>
       <c r="U21" t="n">
-        <v>578.2486299851296</v>
+        <v>393.5122965940603</v>
       </c>
       <c r="V21" t="n">
-        <v>385.0607568534436</v>
+        <v>200.3244234623746</v>
       </c>
       <c r="W21" t="n">
-        <v>191.8728837217577</v>
+        <v>200.3244234623746</v>
       </c>
       <c r="X21" t="n">
-        <v>28.39553748842062</v>
+        <v>36.84707722903747</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="C22" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="D22" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="E22" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="F22" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="G22" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="H22" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="I22" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="J22" t="n">
-        <v>23.00527047835668</v>
+        <v>23.00527047835666</v>
       </c>
       <c r="K22" t="n">
-        <v>48.48500502844416</v>
+        <v>48.48500502844414</v>
       </c>
       <c r="L22" t="n">
-        <v>85.9499850135925</v>
+        <v>85.94998501359244</v>
       </c>
       <c r="M22" t="n">
-        <v>125.9810244199253</v>
+        <v>125.9810244199252</v>
       </c>
       <c r="N22" t="n">
-        <v>166.3370631426646</v>
+        <v>166.3370631426645</v>
       </c>
       <c r="O22" t="n">
-        <v>200.3115197681461</v>
+        <v>200.311519768146</v>
       </c>
       <c r="P22" t="n">
-        <v>226.2849663706405</v>
+        <v>226.2849663706404</v>
       </c>
       <c r="Q22" t="n">
-        <v>235.2346205780376</v>
+        <v>235.2346205780375</v>
       </c>
       <c r="R22" t="n">
-        <v>235.2346205780376</v>
+        <v>235.2346205780375</v>
       </c>
       <c r="S22" t="n">
-        <v>235.2346205780376</v>
+        <v>235.2346205780375</v>
       </c>
       <c r="T22" t="n">
-        <v>235.2346205780376</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="U22" t="n">
-        <v>235.2346205780376</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="V22" t="n">
-        <v>42.04674744635167</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="W22" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="X22" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>879.139021606459</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="C23" t="n">
-        <v>452.2382916197591</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="D23" t="n">
-        <v>452.2382916197591</v>
+        <v>1303.339413282501</v>
       </c>
       <c r="E23" t="n">
-        <v>452.2382916197591</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="F23" t="n">
         <v>452.2382916197591</v>
@@ -5989,10 +5989,10 @@
         <v>103.1440473010161</v>
       </c>
       <c r="J23" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853076</v>
       </c>
       <c r="K23" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998222</v>
       </c>
       <c r="L23" t="n">
         <v>836.7412585230809</v>
@@ -6016,25 +6016,25 @@
         <v>2510.272196103407</v>
       </c>
       <c r="S23" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T23" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U23" t="n">
-        <v>2510.272196103407</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V23" t="n">
-        <v>2152.782781229656</v>
+        <v>1842.797942645545</v>
       </c>
       <c r="W23" t="n">
-        <v>1756.391431530003</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="X23" t="n">
-        <v>1344.671432697751</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="Y23" t="n">
-        <v>939.3341626526409</v>
+        <v>1446.406592945892</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>184.80416897444</v>
+        <v>723.5647599889675</v>
       </c>
       <c r="C25" t="n">
-        <v>184.80416897444</v>
+        <v>551.5921968678834</v>
       </c>
       <c r="D25" t="n">
-        <v>184.80416897444</v>
+        <v>388.2754239946541</v>
       </c>
       <c r="E25" t="n">
-        <v>184.80416897444</v>
+        <v>222.0672181475077</v>
       </c>
       <c r="F25" t="n">
-        <v>184.80416897444</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="G25" t="n">
-        <v>184.80416897444</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H25" t="n">
         <v>50.20544392206814</v>
@@ -6174,25 +6174,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S25" t="n">
-        <v>728.6638647350633</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T25" t="n">
-        <v>728.6638647350633</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U25" t="n">
-        <v>728.6638647350633</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="V25" t="n">
-        <v>728.6638647350633</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="W25" t="n">
-        <v>728.6638647350633</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="X25" t="n">
-        <v>486.0999681808684</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="Y25" t="n">
-        <v>374.9701376865057</v>
+        <v>880.7705985416225</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1693.214927226045</v>
+        <v>1470.289874530753</v>
       </c>
       <c r="C26" t="n">
-        <v>1693.214927226045</v>
+        <v>1043.389144544054</v>
       </c>
       <c r="D26" t="n">
-        <v>1577.589270380385</v>
+        <v>620.0965237290538</v>
       </c>
       <c r="E26" t="n">
-        <v>1151.612330528242</v>
+        <v>620.0965237290538</v>
       </c>
       <c r="F26" t="n">
-        <v>726.4881487176426</v>
+        <v>620.0965237290538</v>
       </c>
       <c r="G26" t="n">
         <v>324.4553010199516</v>
@@ -6223,19 +6223,19 @@
         <v>50.20544392206814</v>
       </c>
       <c r="I26" t="n">
-        <v>103.1440473010159</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J26" t="n">
-        <v>265.8602102853074</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K26" t="n">
-        <v>517.9745679998219</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L26" t="n">
-        <v>836.7412585230807</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M26" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N26" t="n">
         <v>1562.984812457614</v>
@@ -6253,25 +6253,25 @@
         <v>2510.272196103407</v>
       </c>
       <c r="S26" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T26" t="n">
-        <v>2510.272196103407</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U26" t="n">
-        <v>2510.272196103407</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="V26" t="n">
-        <v>2510.272196103407</v>
+        <v>1890.138238822283</v>
       </c>
       <c r="W26" t="n">
-        <v>2510.272196103407</v>
+        <v>1890.138238822283</v>
       </c>
       <c r="X26" t="n">
-        <v>2098.552197271154</v>
+        <v>1890.138238822283</v>
       </c>
       <c r="Y26" t="n">
-        <v>1693.214927226045</v>
+        <v>1890.138238822283</v>
       </c>
     </row>
     <row r="27">
@@ -6287,16 +6287,16 @@
         <v>486.671896462798</v>
       </c>
       <c r="D27" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E27" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F27" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G27" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H27" t="n">
         <v>50.20544392206814</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>253.4628459276413</v>
+        <v>748.2103058278727</v>
       </c>
       <c r="C28" t="n">
-        <v>253.4628459276413</v>
+        <v>748.2103058278727</v>
       </c>
       <c r="D28" t="n">
-        <v>253.4628459276413</v>
+        <v>584.8935329546434</v>
       </c>
       <c r="E28" t="n">
-        <v>253.4628459276413</v>
+        <v>418.685327107497</v>
       </c>
       <c r="F28" t="n">
-        <v>253.4628459276413</v>
+        <v>418.685327107497</v>
       </c>
       <c r="G28" t="n">
         <v>253.4628459276413</v>
@@ -6414,22 +6414,22 @@
         <v>880.7705985416225</v>
       </c>
       <c r="T28" t="n">
-        <v>880.7705985416225</v>
+        <v>748.2103058278727</v>
       </c>
       <c r="U28" t="n">
-        <v>880.7705985416225</v>
+        <v>748.2103058278727</v>
       </c>
       <c r="V28" t="n">
-        <v>599.0591311496514</v>
+        <v>748.2103058278727</v>
       </c>
       <c r="W28" t="n">
-        <v>599.0591311496514</v>
+        <v>748.2103058278727</v>
       </c>
       <c r="X28" t="n">
-        <v>599.0591311496514</v>
+        <v>748.2103058278727</v>
       </c>
       <c r="Y28" t="n">
-        <v>443.628814639707</v>
+        <v>748.2103058278727</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1153.388878704342</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="C29" t="n">
-        <v>726.4881487176426</v>
+        <v>1562.556511482775</v>
       </c>
       <c r="D29" t="n">
-        <v>726.4881487176426</v>
+        <v>1303.339413282501</v>
       </c>
       <c r="E29" t="n">
-        <v>726.4881487176426</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="F29" t="n">
-        <v>726.4881487176426</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G29" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H29" t="n">
-        <v>50.20544392206815</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I29" t="n">
-        <v>103.1440473010166</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J29" t="n">
-        <v>265.8602102853084</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K29" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L29" t="n">
-        <v>836.7412585230813</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M29" t="n">
         <v>1196.576905080624</v>
@@ -6481,34 +6481,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P29" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q29" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R29" t="n">
         <v>2510.272196103407</v>
       </c>
       <c r="S29" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T29" t="n">
-        <v>2299.442080053587</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U29" t="n">
-        <v>2041.271667827028</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="V29" t="n">
-        <v>1683.782252953277</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="W29" t="n">
-        <v>1287.390903253624</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="X29" t="n">
-        <v>1153.388878704342</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="Y29" t="n">
-        <v>1153.388878704342</v>
+        <v>1989.457241469475</v>
       </c>
     </row>
     <row r="30">
@@ -6524,16 +6524,16 @@
         <v>486.671896462798</v>
       </c>
       <c r="D30" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E30" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F30" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G30" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H30" t="n">
         <v>50.20544392206814</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.20544392206814</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="C31" t="n">
-        <v>50.20544392206814</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="D31" t="n">
-        <v>50.20544392206814</v>
+        <v>326.4278314257224</v>
       </c>
       <c r="E31" t="n">
-        <v>50.20544392206814</v>
+        <v>326.4278314257224</v>
       </c>
       <c r="F31" t="n">
-        <v>50.20544392206814</v>
+        <v>326.4278314257224</v>
       </c>
       <c r="G31" t="n">
-        <v>50.20544392206814</v>
+        <v>161.2053502458667</v>
       </c>
       <c r="H31" t="n">
         <v>50.20544392206814</v>
@@ -6648,25 +6648,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S31" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T31" t="n">
-        <v>793.9645126140081</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="U31" t="n">
-        <v>793.9645126140081</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="V31" t="n">
-        <v>793.9645126140081</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="W31" t="n">
-        <v>519.112108786521</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="X31" t="n">
-        <v>276.5482122323261</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.20544392206814</v>
+        <v>489.7446042989517</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>924.8230684062205</v>
+        <v>1304.263203417059</v>
       </c>
       <c r="C32" t="n">
-        <v>924.8230684062205</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="D32" t="n">
-        <v>501.5304475912208</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="E32" t="n">
-        <v>75.55350773907833</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="F32" t="n">
-        <v>50.20544392206813</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G32" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H32" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I32" t="n">
         <v>103.1440473010161</v>
@@ -6706,13 +6706,13 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L32" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M32" t="n">
         <v>1196.576905080623</v>
       </c>
       <c r="N32" t="n">
-        <v>1562.984812457613</v>
+        <v>1562.984812457614</v>
       </c>
       <c r="O32" t="n">
         <v>1906.806429336001</v>
@@ -6727,25 +6727,25 @@
         <v>2510.272196103407</v>
       </c>
       <c r="S32" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T32" t="n">
-        <v>2510.272196103407</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U32" t="n">
-        <v>2510.272196103407</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="V32" t="n">
-        <v>2152.782781229656</v>
+        <v>1700.654553116712</v>
       </c>
       <c r="W32" t="n">
-        <v>1756.391431530003</v>
+        <v>1304.263203417059</v>
       </c>
       <c r="X32" t="n">
-        <v>1344.671432697751</v>
+        <v>1304.263203417059</v>
       </c>
       <c r="Y32" t="n">
-        <v>1344.671432697751</v>
+        <v>1304.263203417059</v>
       </c>
     </row>
     <row r="33">
@@ -6761,22 +6761,22 @@
         <v>486.671896462798</v>
       </c>
       <c r="D33" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E33" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F33" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G33" t="n">
         <v>91.66433580662166</v>
       </c>
       <c r="H33" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I33" t="n">
-        <v>75.83346633145926</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J33" t="n">
         <v>169.6881981570805</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>221.6979649651039</v>
+        <v>690.6046298295569</v>
       </c>
       <c r="C34" t="n">
-        <v>50.20544392206813</v>
+        <v>690.6046298295569</v>
       </c>
       <c r="D34" t="n">
-        <v>50.20544392206813</v>
+        <v>527.2878569563276</v>
       </c>
       <c r="E34" t="n">
-        <v>50.20544392206813</v>
+        <v>361.0796511091811</v>
       </c>
       <c r="F34" t="n">
-        <v>50.20544392206813</v>
+        <v>361.0796511091811</v>
       </c>
       <c r="G34" t="n">
-        <v>50.20544392206813</v>
+        <v>253.4628459276413</v>
       </c>
       <c r="H34" t="n">
-        <v>50.20544392206813</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I34" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J34" t="n">
         <v>101.4579413382349</v>
@@ -6900,10 +6900,10 @@
         <v>880.7705985416225</v>
       </c>
       <c r="X34" t="n">
-        <v>638.2067019874276</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="Y34" t="n">
-        <v>411.8639336771696</v>
+        <v>880.7705985416225</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>751.3560310066515</v>
+        <v>1842.797942645546</v>
       </c>
       <c r="C35" t="n">
-        <v>324.4553010199516</v>
+        <v>1415.897212658846</v>
       </c>
       <c r="D35" t="n">
-        <v>324.4553010199516</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="E35" t="n">
-        <v>324.4553010199516</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="F35" t="n">
-        <v>324.4553010199516</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G35" t="n">
-        <v>324.4553010199516</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H35" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I35" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010159</v>
       </c>
       <c r="J35" t="n">
         <v>265.8602102853079</v>
       </c>
       <c r="K35" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998224</v>
       </c>
       <c r="L35" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M35" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N35" t="n">
         <v>1562.984812457614</v>
@@ -6955,34 +6955,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P35" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q35" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R35" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S35" t="n">
-        <v>2458.457769745854</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.627653696034</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U35" t="n">
-        <v>1989.457241469475</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V35" t="n">
-        <v>1631.967826595725</v>
+        <v>1842.797942645546</v>
       </c>
       <c r="W35" t="n">
-        <v>1235.576476896071</v>
+        <v>1842.797942645546</v>
       </c>
       <c r="X35" t="n">
-        <v>823.8564780638187</v>
+        <v>1842.797942645546</v>
       </c>
       <c r="Y35" t="n">
-        <v>751.3560310066515</v>
+        <v>1842.797942645546</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.1777999452933</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C36" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D36" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780834</v>
       </c>
       <c r="E36" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510206</v>
       </c>
       <c r="F36" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339248</v>
       </c>
       <c r="G36" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662169</v>
       </c>
       <c r="H36" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I36" t="n">
         <v>75.83346633145928</v>
@@ -7019,16 +7019,16 @@
         <v>169.6881981570805</v>
       </c>
       <c r="K36" t="n">
-        <v>342.8010428266099</v>
+        <v>342.8010428266101</v>
       </c>
       <c r="L36" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744363</v>
       </c>
       <c r="M36" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688304</v>
       </c>
       <c r="N36" t="n">
-        <v>1160.072685361481</v>
+        <v>1160.072685361482</v>
       </c>
       <c r="O36" t="n">
         <v>1424.874394922369</v>
@@ -7037,10 +7037,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q36" t="n">
-        <v>1766.116009761532</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R36" t="n">
-        <v>1817.767364655853</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S36" t="n">
         <v>1759.362893661493</v>
@@ -7049,19 +7049,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U36" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V36" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W36" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X36" t="n">
-        <v>872.7976980120636</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y36" t="n">
-        <v>733.104809365356</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>723.5647599889675</v>
+        <v>451.6853693934452</v>
       </c>
       <c r="C37" t="n">
-        <v>551.5921968678834</v>
+        <v>279.7128062723613</v>
       </c>
       <c r="D37" t="n">
-        <v>388.2754239946541</v>
+        <v>279.7128062723613</v>
       </c>
       <c r="E37" t="n">
-        <v>222.0672181475077</v>
+        <v>113.5046004252148</v>
       </c>
       <c r="F37" t="n">
-        <v>50.20544392206814</v>
+        <v>113.5046004252148</v>
       </c>
       <c r="G37" t="n">
-        <v>50.20544392206814</v>
+        <v>113.5046004252148</v>
       </c>
       <c r="H37" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I37" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J37" t="n">
         <v>101.4579413382349</v>
@@ -7125,22 +7125,22 @@
         <v>880.7705985416225</v>
       </c>
       <c r="T37" t="n">
-        <v>880.7705985416225</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="U37" t="n">
-        <v>880.7705985416225</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="V37" t="n">
-        <v>880.7705985416225</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="W37" t="n">
-        <v>880.7705985416225</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="X37" t="n">
-        <v>880.7705985416225</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="Y37" t="n">
-        <v>880.7705985416225</v>
+        <v>641.8513381055109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>446.8766197843848</v>
+        <v>1221.552136576962</v>
       </c>
       <c r="C38" t="n">
-        <v>446.8766197843848</v>
+        <v>1221.552136576962</v>
       </c>
       <c r="D38" t="n">
-        <v>446.8766197843848</v>
+        <v>798.2595157619623</v>
       </c>
       <c r="E38" t="n">
-        <v>446.8766197843848</v>
+        <v>798.2595157619623</v>
       </c>
       <c r="F38" t="n">
-        <v>50.20544392206814</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G38" t="n">
         <v>50.20544392206814</v>
@@ -7201,25 +7201,25 @@
         <v>2510.272196103407</v>
       </c>
       <c r="S38" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T38" t="n">
-        <v>2299.442080053587</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U38" t="n">
-        <v>2041.271667827028</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="V38" t="n">
-        <v>1683.782252953277</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="W38" t="n">
-        <v>1683.782252953277</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="X38" t="n">
-        <v>1272.062254121025</v>
+        <v>2046.737770913602</v>
       </c>
       <c r="Y38" t="n">
-        <v>866.7249840759149</v>
+        <v>1641.400500868492</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>221.6979649651039</v>
+        <v>513.343423027525</v>
       </c>
       <c r="C40" t="n">
-        <v>221.6979649651039</v>
+        <v>513.343423027525</v>
       </c>
       <c r="D40" t="n">
-        <v>221.6979649651039</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="E40" t="n">
-        <v>221.6979649651039</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="F40" t="n">
-        <v>221.6979649651039</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="G40" t="n">
-        <v>221.6979649651039</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H40" t="n">
-        <v>87.09923991273209</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I40" t="n">
         <v>50.20544392206814</v>
@@ -7359,25 +7359,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S40" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T40" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U40" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="V40" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="W40" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="X40" t="n">
-        <v>638.2067019874276</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="Y40" t="n">
-        <v>411.8639336771696</v>
+        <v>513.343423027525</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2247.627653696034</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="C41" t="n">
-        <v>1820.726923709334</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="D41" t="n">
-        <v>1577.589270380385</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="E41" t="n">
-        <v>1151.612330528242</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F41" t="n">
         <v>726.4881487176426</v>
@@ -7441,22 +7441,22 @@
         <v>2458.457769745854</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.627653696034</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U41" t="n">
-        <v>2247.627653696034</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V41" t="n">
-        <v>2247.627653696034</v>
+        <v>1842.797942645545</v>
       </c>
       <c r="W41" t="n">
-        <v>2247.627653696034</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="X41" t="n">
-        <v>2247.627653696034</v>
+        <v>1146.336513009173</v>
       </c>
       <c r="Y41" t="n">
-        <v>2247.627653696034</v>
+        <v>1146.336513009173</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>184.4841739339244</v>
       </c>
       <c r="G42" t="n">
-        <v>91.66433580662161</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H42" t="n">
         <v>50.20544392206814</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>557.356554141821</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="C43" t="n">
-        <v>385.383991020737</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="D43" t="n">
-        <v>222.0672181475077</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="E43" t="n">
-        <v>222.0672181475077</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="F43" t="n">
         <v>50.20544392206814</v>
@@ -7596,25 +7596,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S43" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T43" t="n">
-        <v>799.9204506960159</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U43" t="n">
-        <v>799.9204506960159</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="V43" t="n">
-        <v>799.9204506960159</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="W43" t="n">
-        <v>799.9204506960159</v>
+        <v>453.8114609075763</v>
       </c>
       <c r="X43" t="n">
-        <v>557.356554141821</v>
+        <v>453.8114609075763</v>
       </c>
       <c r="Y43" t="n">
-        <v>557.356554141821</v>
+        <v>227.4686925973183</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1288.695212067115</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="C44" t="n">
-        <v>1288.695212067115</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="D44" t="n">
-        <v>865.4025912521154</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="E44" t="n">
-        <v>865.4025912521154</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F44" t="n">
         <v>726.4881487176426</v>
       </c>
       <c r="G44" t="n">
-        <v>324.4553010199517</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H44" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I44" t="n">
         <v>103.1440473010161</v>
@@ -7663,37 +7663,37 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O44" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P44" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q44" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R44" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S44" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="T44" t="n">
-        <v>2510.272196103408</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="U44" t="n">
-        <v>2510.272196103408</v>
+        <v>2041.271667827028</v>
       </c>
       <c r="V44" t="n">
-        <v>2510.272196103408</v>
+        <v>1683.782252953277</v>
       </c>
       <c r="W44" t="n">
-        <v>2113.880846403755</v>
+        <v>1287.390903253624</v>
       </c>
       <c r="X44" t="n">
-        <v>2113.880846403755</v>
+        <v>1287.390903253624</v>
       </c>
       <c r="Y44" t="n">
-        <v>1708.543576358645</v>
+        <v>882.0536332085145</v>
       </c>
     </row>
     <row r="45">
@@ -7709,34 +7709,34 @@
         <v>486.671896462798</v>
       </c>
       <c r="D45" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E45" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F45" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G45" t="n">
-        <v>91.66433580662147</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H45" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I45" t="n">
-        <v>75.83346633145948</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J45" t="n">
         <v>169.6881981570805</v>
       </c>
       <c r="K45" t="n">
-        <v>342.80104282661</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L45" t="n">
-        <v>583.1000388744361</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M45" t="n">
-        <v>866.6631241688301</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N45" t="n">
         <v>1160.072685361481</v>
@@ -7748,7 +7748,7 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q45" t="n">
-        <v>1766.116009761533</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R45" t="n">
         <v>1817.767364655853</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>387.4004882230079</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="C46" t="n">
-        <v>215.4279251019238</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="D46" t="n">
-        <v>215.4279251019238</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="E46" t="n">
-        <v>215.4279251019238</v>
+        <v>282.3276370350891</v>
       </c>
       <c r="F46" t="n">
-        <v>215.4279251019238</v>
+        <v>110.4658628096495</v>
       </c>
       <c r="G46" t="n">
-        <v>50.20544392206816</v>
+        <v>110.4658628096495</v>
       </c>
       <c r="H46" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I46" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J46" t="n">
         <v>101.4579413382349</v>
@@ -7833,25 +7833,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S46" t="n">
-        <v>803.9092252453315</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T46" t="n">
-        <v>803.9092252453315</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U46" t="n">
-        <v>803.9092252453315</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="V46" t="n">
-        <v>803.9092252453315</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="W46" t="n">
-        <v>803.9092252453315</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="X46" t="n">
-        <v>803.9092252453315</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="Y46" t="n">
-        <v>577.5664569350736</v>
+        <v>448.5358428822355</v>
       </c>
     </row>
   </sheetData>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402.3867464568655</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>404.0016403473705</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>406.6591161941419</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>405.8148857330146</v>
       </c>
       <c r="G2" t="n">
-        <v>399.9967427842381</v>
+        <v>386.7336085924889</v>
       </c>
       <c r="H2" t="n">
         <v>291.8282880968454</v>
@@ -22606,13 +22606,13 @@
         <v>255.7474459893752</v>
       </c>
       <c r="V2" t="n">
-        <v>338.8564664655339</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>377.3693819431774</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>392.5447445844511</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.579685066383</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
         <v>116.3308444476703</v>
@@ -22673,28 +22673,28 @@
         <v>2.330695053476184</v>
       </c>
       <c r="R3" t="n">
-        <v>13.7425402420767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>77.54016887301827</v>
+        <v>62.48211461353915</v>
       </c>
       <c r="T3" t="n">
         <v>139.8164614059971</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9099916776777</v>
+        <v>167.8519374181986</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>188.3447592629748</v>
       </c>
       <c r="W3" t="n">
-        <v>181.2930292033658</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>146.7845185115246</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>123.2379055007614</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -22804,10 +22804,10 @@
         <v>291.7043547567607</v>
       </c>
       <c r="I5" t="n">
-        <v>4.338596154314471</v>
+        <v>22.55690342461459</v>
       </c>
       <c r="J5" t="n">
-        <v>3.021643902788</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,28 +22828,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.985093652448725</v>
+        <v>2.536891551628976</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>15.49488714450009</v>
       </c>
       <c r="S5" t="n">
-        <v>78.01770889792071</v>
+        <v>96.23601616822083</v>
       </c>
       <c r="T5" t="n">
-        <v>199.1364724422805</v>
+        <v>217.3547797125806</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7464778783334</v>
+        <v>237.5281706080333</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>335.6962134547129</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>374.2091289323565</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>394.5777577030379</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -22871,22 +22871,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>102.9394032401554</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
         <v>74.49106474362476</v>
       </c>
       <c r="G6" t="n">
-        <v>74.72851086425395</v>
+        <v>92.94681813455406</v>
       </c>
       <c r="H6" t="n">
-        <v>33.01679750036618</v>
+        <v>51.2351047706663</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.44271547525859</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4.888458418784962</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,22 +22907,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.504190801070976</v>
+        <v>1.50419080107098</v>
       </c>
       <c r="R6" t="n">
-        <v>13.34053384443211</v>
+        <v>13.34053384443212</v>
       </c>
       <c r="S6" t="n">
-        <v>77.41990205371728</v>
+        <v>61.37321701003694</v>
       </c>
       <c r="T6" t="n">
-        <v>139.7903633642173</v>
+        <v>121.5720560939171</v>
       </c>
       <c r="U6" t="n">
         <v>182.9095657031111</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>184.7051002018263</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
@@ -22968,22 +22968,22 @@
         <v>10.77286693432814</v>
       </c>
       <c r="K7" t="n">
-        <v>4.755254677277744</v>
+        <v>4.755254677277748</v>
       </c>
       <c r="L7" t="n">
-        <v>1.176308884163515</v>
+        <v>1.176308884163518</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7054336060544522</v>
+        <v>0.7054336060544557</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2.189895604189324</v>
+        <v>2.779019446119921</v>
       </c>
       <c r="P7" t="n">
-        <v>5.506790124936618</v>
+        <v>5.506790124936622</v>
       </c>
       <c r="Q7" t="n">
         <v>12.9368725197517</v>
@@ -23004,7 +23004,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>271.5147559472815</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>392.1401676895703</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>399.1220097277885</v>
+        <v>402.0829322261067</v>
       </c>
       <c r="D8" t="n">
         <v>395.5499816478053</v>
       </c>
       <c r="E8" t="n">
-        <v>401.0098152792947</v>
+        <v>398.2074574945767</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -23041,10 +23041,10 @@
         <v>291.4788031161503</v>
       </c>
       <c r="I8" t="n">
-        <v>21.70782937363143</v>
+        <v>21.70782937363144</v>
       </c>
       <c r="J8" t="n">
-        <v>1.152398102006437</v>
+        <v>1.152398102006444</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1585647136001356</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.11143217127992</v>
+        <v>14.11143217127993</v>
       </c>
       <c r="S8" t="n">
-        <v>95.73414793822852</v>
+        <v>72.22443497918414</v>
       </c>
       <c r="T8" t="n">
         <v>217.2583703575925</v>
@@ -23108,22 +23108,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>96.75970920096495</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F9" t="n">
-        <v>69.19965905488048</v>
+        <v>69.1996590548805</v>
       </c>
       <c r="G9" t="n">
-        <v>69.42532138281298</v>
+        <v>72.22767916753109</v>
       </c>
       <c r="H9" t="n">
-        <v>27.6115851821566</v>
+        <v>51.12129814120099</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.03700156004394</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.775148425455178</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23156,10 +23156,10 @@
         <v>139.7428664103214</v>
       </c>
       <c r="U9" t="n">
-        <v>182.9087904535916</v>
+        <v>159.3990774945472</v>
       </c>
       <c r="V9" t="n">
-        <v>202.9234074721264</v>
+        <v>179.413694513082</v>
       </c>
       <c r="W9" t="n">
         <v>194.556163395115</v>
@@ -23205,7 +23205,7 @@
         <v>10.07441202240545</v>
       </c>
       <c r="K10" t="n">
-        <v>3.607478700117916</v>
+        <v>3.60747870011792</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,10 +23217,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.382648484235652</v>
       </c>
       <c r="P10" t="n">
-        <v>2.510768992546414</v>
+        <v>4.311953536506707</v>
       </c>
       <c r="Q10" t="n">
         <v>12.10962959912422</v>
@@ -23238,7 +23238,7 @@
         <v>277.3744551058947</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>275.7105196898555</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -23260,25 +23260,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>392.1588147723059</v>
+        <v>334.5380422188313</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>354.5139374081824</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>333.6234899856195</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>332.7792595244922</v>
       </c>
       <c r="G11" t="n">
-        <v>399.9373748401208</v>
+        <v>399.7379713523258</v>
       </c>
       <c r="H11" t="n">
-        <v>291.2202861391545</v>
+        <v>289.1781451697731</v>
       </c>
       <c r="I11" t="n">
-        <v>20.73465952076844</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>12.52577934020787</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.15892952120976</v>
+        <v>90.61502254307932</v>
       </c>
       <c r="T11" t="n">
-        <v>186.6749624487485</v>
+        <v>216.2749815954525</v>
       </c>
       <c r="U11" t="n">
-        <v>228.9021592627305</v>
+        <v>255.7267442748222</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>361.9545282881296</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.6377393258621</v>
+        <v>39.54405885786052</v>
       </c>
       <c r="C12" t="n">
-        <v>116.3308444476703</v>
+        <v>28.23716397966871</v>
       </c>
       <c r="D12" t="n">
         <v>102.8015588998678</v>
@@ -23351,16 +23351,16 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>92.92152829748879</v>
+        <v>92.81483802569352</v>
       </c>
       <c r="H12" t="n">
-        <v>50.99085818637803</v>
+        <v>49.96045477193429</v>
       </c>
       <c r="I12" t="n">
-        <v>9.57199082191487</v>
+        <v>5.898663481595438</v>
       </c>
       <c r="J12" t="n">
-        <v>2.499123417806988</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.77034553962527</v>
+        <v>5.146189892547323</v>
       </c>
       <c r="S12" t="n">
-        <v>50.10961713114833</v>
+        <v>74.9684294176455</v>
       </c>
       <c r="T12" t="n">
-        <v>109.2155196590632</v>
+        <v>139.2583909078891</v>
       </c>
       <c r="U12" t="n">
-        <v>152.4349939835141</v>
+        <v>182.9008828012124</v>
       </c>
       <c r="V12" t="n">
-        <v>172.4504995575994</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W12" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X12" t="n">
-        <v>161.8425727710037</v>
+        <v>148.9588574282994</v>
       </c>
       <c r="Y12" t="n">
-        <v>138.2959597602405</v>
+        <v>50.20227929223897</v>
       </c>
     </row>
     <row r="13">
@@ -23430,16 +23430,16 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.4336803334017</v>
+        <v>164.3442347934871</v>
       </c>
       <c r="H13" t="n">
-        <v>140.9293617846389</v>
+        <v>140.1341096206706</v>
       </c>
       <c r="I13" t="n">
-        <v>93.93760361421315</v>
+        <v>14.52320307450765</v>
       </c>
       <c r="J13" t="n">
-        <v>3.080734031025338</v>
+        <v>2.950075267626374</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.942486473402749</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.16148158963455</v>
+        <v>3.671637333691518</v>
       </c>
       <c r="R13" t="n">
-        <v>39.34168614264573</v>
+        <v>35.31988941157481</v>
       </c>
       <c r="S13" t="n">
-        <v>165.6327913918166</v>
+        <v>164.0739995734861</v>
       </c>
       <c r="T13" t="n">
-        <v>240.2192429564045</v>
+        <v>239.8370665585874</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3738374869546</v>
+        <v>277.368958639323</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>385.1769727340878</v>
+        <v>338.0569668923989</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -23509,13 +23509,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>393.8314970697739</v>
+        <v>399.7379713523258</v>
       </c>
       <c r="H14" t="n">
-        <v>260.7473782246275</v>
+        <v>289.1781451697731</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>13.04715655754852</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>12.52577934020787</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.15892952120976</v>
+        <v>2.521342075077769</v>
       </c>
       <c r="T14" t="n">
-        <v>217.1478703632754</v>
+        <v>128.1813011274509</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7426965538458</v>
+        <v>255.7267442748222</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -23563,7 +23563,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>370.8109894301316</v>
+        <v>313.190216876657</v>
       </c>
     </row>
     <row r="15">
@@ -23582,22 +23582,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
-        <v>73.18200647526517</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F15" t="n">
-        <v>62.23646409939791</v>
+        <v>4.615691545923326</v>
       </c>
       <c r="G15" t="n">
-        <v>62.44862038296182</v>
+        <v>4.721157557691967</v>
       </c>
       <c r="H15" t="n">
-        <v>24.15032089526269</v>
+        <v>49.96045477193429</v>
       </c>
       <c r="I15" t="n">
-        <v>9.57199082191487</v>
+        <v>5.898663481595438</v>
       </c>
       <c r="J15" t="n">
-        <v>2.499123417806988</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.77034553962527</v>
+        <v>5.146189892547323</v>
       </c>
       <c r="S15" t="n">
-        <v>76.95015442226369</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>139.6884275735901</v>
+        <v>113.2494245148287</v>
       </c>
       <c r="U15" t="n">
-        <v>182.907901898041</v>
+        <v>182.9008828012124</v>
       </c>
       <c r="V15" t="n">
         <v>202.9234074721264</v>
@@ -23667,16 +23667,16 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.4336803334017</v>
+        <v>164.3442347934871</v>
       </c>
       <c r="H16" t="n">
-        <v>140.9293617846389</v>
+        <v>140.1341096206706</v>
       </c>
       <c r="I16" t="n">
-        <v>93.93760361421315</v>
+        <v>14.52320307450765</v>
       </c>
       <c r="J16" t="n">
-        <v>3.080734031025338</v>
+        <v>2.950075267626374</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.942486473402749</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.16148158963455</v>
+        <v>3.671637333691518</v>
       </c>
       <c r="R16" t="n">
-        <v>39.34168614264573</v>
+        <v>35.31988941157481</v>
       </c>
       <c r="S16" t="n">
-        <v>165.6327913918166</v>
+        <v>164.0739995734861</v>
       </c>
       <c r="T16" t="n">
-        <v>240.2192429564045</v>
+        <v>239.8370665585874</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3738374869546</v>
+        <v>277.368958639323</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23737,7 +23737,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>227.8037002064807</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -23749,7 +23749,7 @@
         <v>399.3995456585952</v>
       </c>
       <c r="H17" t="n">
-        <v>200.1571102132033</v>
+        <v>94.45624863348567</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>23.53752872077791</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U17" t="n">
         <v>255.6996702193238</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>268.3593879043614</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>216.3468044435613</v>
+        <v>216.3468044435612</v>
       </c>
       <c r="Y17" t="n">
-        <v>210.0279029442897</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23825,10 +23825,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>92.63376431607153</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>48.21166394479565</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>71.60506467971084</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>15.23390933415416</v>
+        <v>131.2610743851407</v>
       </c>
       <c r="W18" t="n">
         <v>194.556163395115</v>
@@ -23910,7 +23910,7 @@
         <v>138.7844152484321</v>
       </c>
       <c r="I19" t="n">
-        <v>86.68250837722755</v>
+        <v>60.20370316184859</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>161.4284329972273</v>
       </c>
       <c r="T19" t="n">
-        <v>47.93244602841071</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U19" t="n">
         <v>277.3606783057509</v>
       </c>
       <c r="V19" t="n">
-        <v>252.4155475026724</v>
+        <v>87.63835831768236</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.3938862482457</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>231.3757282864638</v>
+        <v>231.375728286464</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>230.461176053252</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>399.3995456585952</v>
+        <v>208.1435512582263</v>
       </c>
       <c r="H20" t="n">
         <v>285.7122430338547</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>46.33524325330185</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6996702193238</v>
+        <v>64.44367581895486</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>306.8723033820052</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24104,19 +24104,19 @@
         <v>138.5285367888426</v>
       </c>
       <c r="U21" t="n">
-        <v>182.8889700571583</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>11.66741307175735</v>
+        <v>11.66741307175749</v>
       </c>
       <c r="W21" t="n">
-        <v>3.300168994745917</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>125.3318524032133</v>
+        <v>116.9648280600026</v>
       </c>
     </row>
     <row r="22">
@@ -24177,19 +24177,19 @@
         <v>28.49413443704394</v>
       </c>
       <c r="S22" t="n">
-        <v>161.4284329972273</v>
+        <v>161.4284329972274</v>
       </c>
       <c r="T22" t="n">
-        <v>239.1884404287796</v>
+        <v>212.7096352134006</v>
       </c>
       <c r="U22" t="n">
         <v>277.3606783057509</v>
       </c>
       <c r="V22" t="n">
-        <v>87.63835831768233</v>
+        <v>87.63835831768247</v>
       </c>
       <c r="W22" t="n">
-        <v>245.6250745738332</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>356.0566910128946</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>277.423186740093</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U23" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>32.63052885781656</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.5702563680571</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I25" t="n">
         <v>67.97209018366931</v>
@@ -24414,7 +24414,7 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T25" t="n">
         <v>236.5300678317505</v>
@@ -24429,10 +24429,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>114.0608084377363</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>304.5902943296462</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>105.3277087387028</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T28" t="n">
-        <v>236.5300678317505</v>
+        <v>105.2953780451382</v>
       </c>
       <c r="U28" t="n">
         <v>277.3267416342995</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -24669,7 +24669,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.2033272823104</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>162.4347673885787</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>274.9407945401413</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24843,7 +24843,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24852,10 +24852,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.2527378018481</v>
+        <v>23.36283054128756</v>
       </c>
       <c r="I31" t="n">
         <v>67.97209018366931</v>
@@ -24888,10 +24888,10 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S31" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>150.5920427634122</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3267416342995</v>
@@ -24900,13 +24900,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>395.7783568136537</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>271.5073585269046</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>67.99985925577744</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4752416572677021</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.5702563680571</v>
+        <v>57.02961923833276</v>
       </c>
       <c r="H34" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>157.4176612975524</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>329.508454758063</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.63052885781656</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>163.5702563680571</v>
       </c>
       <c r="H37" t="n">
-        <v>133.2527378018481</v>
+        <v>70.58657286373293</v>
       </c>
       <c r="I37" t="n">
         <v>67.97209018366931</v>
@@ -25365,7 +25365,7 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T37" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3267416342995</v>
@@ -25396,16 +25396,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>28.16847588880023</v>
+        <v>78.3119280917125</v>
       </c>
       <c r="G38" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>271.5073585269046</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25563,13 +25563,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>31.447232152912</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S40" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>236.5300678317505</v>
@@ -25614,10 +25614,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>10.91210333669247</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>178.3534178111898</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>110.5334197065781</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>12.77369283644734</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>163.5702563680571</v>
@@ -25836,10 +25836,10 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S43" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>156.4884214646</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U43" t="n">
         <v>277.3267416342995</v>
@@ -25848,13 +25848,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>261.6400510026516</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>283.3476418833657</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H46" t="n">
-        <v>133.2527378018481</v>
+        <v>73.59492310314258</v>
       </c>
       <c r="I46" t="n">
         <v>67.97209018366931</v>
@@ -26073,13 +26073,13 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S46" t="n">
-        <v>74.49290690516561</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>236.5300678317505</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26091,7 +26091,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>61649.58055795087</v>
+        <v>61649.58055795089</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>71759.19693496769</v>
+        <v>111210.3198234502</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71759.19693496769</v>
+        <v>111210.3198234502</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>178093.5695095766</v>
+        <v>178093.5695095767</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>452032.3271294652</v>
+        <v>452032.3271294653</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>452032.3271294652</v>
+        <v>452032.3271294654</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>452032.3271294652</v>
+        <v>452032.3271294654</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>452032.3271294653</v>
+        <v>452032.3271294654</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>452032.3271294654</v>
+        <v>452032.3271294652</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>452032.3271294654</v>
+        <v>452032.3271294652</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18900.53624636951</v>
+        <v>18900.5362463695</v>
       </c>
       <c r="C2" t="n">
-        <v>19774.39376387103</v>
+        <v>19774.39376387104</v>
       </c>
       <c r="D2" t="n">
         <v>21271.87338287369</v>
       </c>
       <c r="E2" t="n">
-        <v>23017.1009036689</v>
+        <v>35671.23466035194</v>
       </c>
       <c r="F2" t="n">
-        <v>23017.10090366889</v>
+        <v>35671.23466035193</v>
       </c>
       <c r="G2" t="n">
-        <v>57124.3524842038</v>
+        <v>57124.35248420382</v>
       </c>
       <c r="H2" t="n">
-        <v>57124.3524842038</v>
+        <v>57124.35248420381</v>
       </c>
       <c r="I2" t="n">
         <v>144991.5011547341</v>
       </c>
       <c r="J2" t="n">
-        <v>144991.5011547342</v>
+        <v>144991.5011547341</v>
       </c>
       <c r="K2" t="n">
-        <v>144991.5011547342</v>
+        <v>144991.5011547341</v>
       </c>
       <c r="L2" t="n">
         <v>144991.5011547341</v>
       </c>
       <c r="M2" t="n">
-        <v>144991.5011547342</v>
+        <v>144991.5011547341</v>
       </c>
       <c r="N2" t="n">
-        <v>144991.5011547342</v>
+        <v>144991.5011547341</v>
       </c>
       <c r="O2" t="n">
-        <v>144991.5011547342</v>
+        <v>144991.5011547341</v>
       </c>
       <c r="P2" t="n">
         <v>144991.5011547341</v>
@@ -26368,25 +26368,25 @@
         <v>76699.20362794719</v>
       </c>
       <c r="C3" t="n">
-        <v>3762.097706969938</v>
+        <v>3762.097706969926</v>
       </c>
       <c r="D3" t="n">
-        <v>6335.473445957287</v>
+        <v>6335.473445957283</v>
       </c>
       <c r="E3" t="n">
-        <v>7123.725401352029</v>
+        <v>64178.10880470021</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>148084.3374776132</v>
+        <v>93726.73517785459</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>375740.1254450972</v>
+        <v>375740.1254450973</v>
       </c>
       <c r="J3" t="n">
         <v>3939.849548667163</v>
@@ -26395,16 +26395,16 @@
         <v>813.3479968889759</v>
       </c>
       <c r="L3" t="n">
-        <v>1339.207157169949</v>
+        <v>1339.207157169974</v>
       </c>
       <c r="M3" t="n">
-        <v>1735.256035686111</v>
+        <v>16094.58303910219</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>38692.61054590435</v>
+        <v>24826.11401013816</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>10.91115737735348</v>
       </c>
       <c r="C4" t="n">
-        <v>13.22273493796324</v>
+        <v>13.22273493796323</v>
       </c>
       <c r="D4" t="n">
-        <v>17.15222569169691</v>
+        <v>17.15222569169689</v>
       </c>
       <c r="E4" t="n">
-        <v>22.39251918675428</v>
+        <v>62.45231285262348</v>
       </c>
       <c r="F4" t="n">
-        <v>22.39251918675428</v>
+        <v>62.45231285262348</v>
       </c>
       <c r="G4" t="n">
         <v>134.583956678369</v>
@@ -26441,25 +26441,25 @@
         <v>440.4537918539642</v>
       </c>
       <c r="J4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="K4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="L4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="M4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="N4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="O4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="P4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>36863.06036917747</v>
       </c>
       <c r="E5" t="n">
-        <v>3795.707566887204</v>
+        <v>8380.365801579241</v>
       </c>
       <c r="F5" t="n">
-        <v>3795.707566887204</v>
+        <v>8380.365801579241</v>
       </c>
       <c r="G5" t="n">
         <v>16487.83241934473</v>
       </c>
       <c r="H5" t="n">
-        <v>16487.83241934473</v>
+        <v>16487.83241934472</v>
       </c>
       <c r="I5" t="n">
         <v>50537.10295659396</v>
@@ -26499,10 +26499,10 @@
         <v>50537.10295659396</v>
       </c>
       <c r="L5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659396</v>
       </c>
       <c r="M5" t="n">
-        <v>50537.10295659396</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="N5" t="n">
         <v>50537.10295659396</v>
@@ -26511,7 +26511,7 @@
         <v>50537.10295659396</v>
       </c>
       <c r="P5" t="n">
-        <v>50537.10295659397</v>
+        <v>50537.10295659396</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93973.72548465343</v>
+        <v>-95318.6525297027</v>
       </c>
       <c r="C6" t="n">
-        <v>-20422.83980869181</v>
+        <v>-21762.62651540281</v>
       </c>
       <c r="D6" t="n">
-        <v>-21943.81265795277</v>
+        <v>-23274.79066102259</v>
       </c>
       <c r="E6" t="n">
-        <v>12075.27541624291</v>
+        <v>-38195.96813668833</v>
       </c>
       <c r="F6" t="n">
-        <v>19199.00081759493</v>
+        <v>25982.14066801187</v>
       </c>
       <c r="G6" t="n">
-        <v>-107582.4013694325</v>
+        <v>-54344.88013685352</v>
       </c>
       <c r="H6" t="n">
-        <v>40501.9361081807</v>
+        <v>39381.85504100106</v>
       </c>
       <c r="I6" t="n">
-        <v>-281726.1810388109</v>
+        <v>-282329.3965255759</v>
       </c>
       <c r="J6" t="n">
-        <v>90074.09485761911</v>
+        <v>89470.87937085424</v>
       </c>
       <c r="K6" t="n">
-        <v>93200.59640939727</v>
+        <v>92597.38092263247</v>
       </c>
       <c r="L6" t="n">
-        <v>92674.73724911621</v>
+        <v>92071.52176235142</v>
       </c>
       <c r="M6" t="n">
-        <v>92278.68837060014</v>
+        <v>77316.14588041927</v>
       </c>
       <c r="N6" t="n">
-        <v>94013.94440628625</v>
+        <v>93410.72891952141</v>
       </c>
       <c r="O6" t="n">
-        <v>55321.33386038191</v>
+        <v>68584.61490938324</v>
       </c>
       <c r="P6" t="n">
-        <v>94013.94440628614</v>
+        <v>93410.72891952135</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>74.35858929917691</v>
       </c>
       <c r="C3" t="n">
-        <v>77.36880956975664</v>
+        <v>77.36880956975662</v>
       </c>
       <c r="D3" t="n">
-        <v>82.84723950768695</v>
+        <v>82.84723950768694</v>
       </c>
       <c r="E3" t="n">
-        <v>89.12636539834699</v>
+        <v>138.7279829873737</v>
       </c>
       <c r="F3" t="n">
-        <v>89.12636539834699</v>
+        <v>138.7279829873737</v>
       </c>
       <c r="G3" t="n">
         <v>222.9113743028576</v>
@@ -26795,19 +26795,19 @@
         <v>18.21830727030011</v>
       </c>
       <c r="D4" t="n">
-        <v>23.50971295904439</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="E4" t="n">
-        <v>30.47290791452697</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="F4" t="n">
-        <v>30.47290791452697</v>
+        <v>88.09368046800155</v>
       </c>
       <c r="G4" t="n">
+        <v>191.255994400369</v>
+      </c>
+      <c r="H4" t="n">
         <v>191.2559944003689</v>
-      </c>
-      <c r="H4" t="n">
-        <v>191.255994400369</v>
       </c>
       <c r="I4" t="n">
         <v>627.5680490258518</v>
@@ -26819,10 +26819,10 @@
         <v>627.5680490258518</v>
       </c>
       <c r="L4" t="n">
-        <v>627.5680490258517</v>
+        <v>627.5680490258518</v>
       </c>
       <c r="M4" t="n">
-        <v>627.5680490258518</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="N4" t="n">
         <v>627.5680490258518</v>
@@ -26831,7 +26831,7 @@
         <v>627.5680490258518</v>
       </c>
       <c r="P4" t="n">
-        <v>627.5680490258519</v>
+        <v>627.5680490258518</v>
       </c>
     </row>
   </sheetData>
@@ -26962,25 +26962,25 @@
         <v>74.35858929917691</v>
       </c>
       <c r="C3" t="n">
-        <v>3.010220270579723</v>
+        <v>3.010220270579708</v>
       </c>
       <c r="D3" t="n">
         <v>5.478429937930315</v>
       </c>
       <c r="E3" t="n">
-        <v>6.27912589066004</v>
+        <v>55.88074347968677</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>133.7850089045106</v>
+        <v>84.1833913154839</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>345.0228264229301</v>
+        <v>345.0228264229302</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,22 +27017,22 @@
         <v>3.160253010820988</v>
       </c>
       <c r="D4" t="n">
-        <v>5.291405688744277</v>
+        <v>5.291405688744263</v>
       </c>
       <c r="E4" t="n">
-        <v>6.963194955482585</v>
+        <v>64.58396750895717</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>160.7830864858419</v>
+        <v>103.1623139323675</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>436.3120546254827</v>
+        <v>436.3120546254829</v>
       </c>
       <c r="J4" t="n">
         <v>15.05805425947915</v>
@@ -27041,16 +27041,16 @@
         <v>3.160253010820988</v>
       </c>
       <c r="L4" t="n">
-        <v>5.291405688744163</v>
+        <v>5.291405688744263</v>
       </c>
       <c r="M4" t="n">
-        <v>6.963194955482699</v>
+        <v>64.58396750895729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>160.7830864858419</v>
+        <v>103.1623139323675</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>3.160253010820988</v>
       </c>
       <c r="L4" t="n">
-        <v>5.291405688744277</v>
+        <v>5.291405688744263</v>
       </c>
       <c r="M4" t="n">
-        <v>6.963194955482585</v>
+        <v>64.58396750895717</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>160.7830864858419</v>
+        <v>103.1623139323675</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31132,10 +31132,10 @@
         <v>15.11092803861859</v>
       </c>
       <c r="K3" t="n">
-        <v>25.82698285120563</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>33.71286938678954</v>
+        <v>34.72756569109202</v>
       </c>
       <c r="M3" t="n">
         <v>38.1548347718071</v>
@@ -31147,7 +31147,7 @@
         <v>38.05406031804198</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>24.18389391839846</v>
       </c>
       <c r="Q3" t="n">
         <v>20.41634323550231</v>
@@ -31278,10 +31278,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3110303902301772</v>
+        <v>0.3110303902301771</v>
       </c>
       <c r="H5" t="n">
-        <v>3.185339983944803</v>
+        <v>3.185339983944802</v>
       </c>
       <c r="I5" t="n">
         <v>11.99099911934892</v>
@@ -31293,19 +31293,19 @@
         <v>39.56423200124193</v>
       </c>
       <c r="L5" t="n">
-        <v>49.08292830624873</v>
+        <v>49.08292830624872</v>
       </c>
       <c r="M5" t="n">
-        <v>54.61421500850464</v>
+        <v>54.61421500850463</v>
       </c>
       <c r="N5" t="n">
-        <v>55.49793010474614</v>
+        <v>55.49793010474612</v>
       </c>
       <c r="O5" t="n">
-        <v>52.40512166189481</v>
+        <v>52.4051216618948</v>
       </c>
       <c r="P5" t="n">
-        <v>44.7265589030873</v>
+        <v>44.72655890308729</v>
       </c>
       <c r="Q5" t="n">
         <v>33.58778305296907</v>
@@ -31314,7 +31314,7 @@
         <v>19.53776275029638</v>
       </c>
       <c r="S5" t="n">
-        <v>7.08760501737017</v>
+        <v>7.087605017370168</v>
       </c>
       <c r="T5" t="n">
         <v>1.361535533232601</v>
@@ -31363,28 +31363,28 @@
         <v>1.607227534647209</v>
       </c>
       <c r="I6" t="n">
-        <v>5.729671274741412</v>
+        <v>5.729671274741411</v>
       </c>
       <c r="J6" t="n">
-        <v>15.72265591454838</v>
+        <v>15.72265591454837</v>
       </c>
       <c r="K6" t="n">
-        <v>26.87252322575217</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>36.13342375236606</v>
+        <v>31.78561213073775</v>
       </c>
       <c r="M6" t="n">
         <v>41.31508778262809</v>
       </c>
       <c r="N6" t="n">
-        <v>30.74023446979461</v>
+        <v>39.56133548384177</v>
       </c>
       <c r="O6" t="n">
         <v>39.59458313896781</v>
       </c>
       <c r="P6" t="n">
-        <v>31.77814368913269</v>
+        <v>31.77814368913268</v>
       </c>
       <c r="Q6" t="n">
         <v>21.24284748790752</v>
@@ -31393,10 +31393,10 @@
         <v>10.33238554971203</v>
       </c>
       <c r="S6" t="n">
-        <v>3.091102910640747</v>
+        <v>3.091102910640746</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6707729810811918</v>
+        <v>0.6707729810811917</v>
       </c>
       <c r="U6" t="n">
         <v>0.01094841644855047</v>
@@ -31439,22 +31439,22 @@
         <v>0.1395175254536595</v>
       </c>
       <c r="H7" t="n">
-        <v>1.240437635397083</v>
+        <v>1.240437635397082</v>
       </c>
       <c r="I7" t="n">
-        <v>4.195672492733689</v>
+        <v>4.195672492733688</v>
       </c>
       <c r="J7" t="n">
-        <v>9.863889049573725</v>
+        <v>9.863889049573723</v>
       </c>
       <c r="K7" t="n">
         <v>16.20939977543425</v>
       </c>
       <c r="L7" t="n">
-        <v>20.74245101153771</v>
+        <v>20.7424510115377</v>
       </c>
       <c r="M7" t="n">
-        <v>21.87000628543137</v>
+        <v>21.87000628543136</v>
       </c>
       <c r="N7" t="n">
         <v>21.34998641783138</v>
@@ -31463,22 +31463,22 @@
         <v>19.72016805230453</v>
       </c>
       <c r="P7" t="n">
-        <v>16.87401053304987</v>
+        <v>16.87401053304986</v>
       </c>
       <c r="Q7" t="n">
         <v>11.68269024503325</v>
       </c>
       <c r="R7" t="n">
-        <v>6.273215280852725</v>
+        <v>6.273215280852723</v>
       </c>
       <c r="S7" t="n">
-        <v>2.431409966315138</v>
+        <v>2.431409966315137</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5961203360292722</v>
+        <v>0.5961203360292721</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00761004684292689</v>
+        <v>0.007610046842926889</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3330542291766307</v>
+        <v>0.3330542291766306</v>
       </c>
       <c r="H8" t="n">
         <v>3.41089162455517</v>
@@ -31524,37 +31524,37 @@
         <v>12.84007317033207</v>
       </c>
       <c r="J8" t="n">
-        <v>28.26756138358009</v>
+        <v>28.26756138358008</v>
       </c>
       <c r="K8" t="n">
         <v>42.36574690462687</v>
       </c>
       <c r="L8" t="n">
-        <v>52.55845527079119</v>
+        <v>52.55845527079118</v>
       </c>
       <c r="M8" t="n">
-        <v>58.4814084189111</v>
+        <v>58.48140841891108</v>
       </c>
       <c r="N8" t="n">
-        <v>59.42769874755921</v>
+        <v>59.4276987475592</v>
       </c>
       <c r="O8" t="n">
-        <v>56.11589075618408</v>
+        <v>56.11589075618407</v>
       </c>
       <c r="P8" t="n">
-        <v>47.893614473386</v>
+        <v>47.89361447338599</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.96610989099791</v>
+        <v>35.9661098909979</v>
       </c>
       <c r="R8" t="n">
-        <v>20.92121772351655</v>
+        <v>20.92121772351654</v>
       </c>
       <c r="S8" t="n">
-        <v>7.58947324736248</v>
+        <v>7.589473247362479</v>
       </c>
       <c r="T8" t="n">
-        <v>1.457944888220702</v>
+        <v>1.457944888220701</v>
       </c>
       <c r="U8" t="n">
         <v>0.02664433833413045</v>
@@ -31600,7 +31600,7 @@
         <v>1.721034164112516</v>
       </c>
       <c r="I9" t="n">
-        <v>6.135385189956063</v>
+        <v>6.135385189956062</v>
       </c>
       <c r="J9" t="n">
         <v>16.83596590787816</v>
@@ -31609,31 +31609,31 @@
         <v>28.77534732975953</v>
       </c>
       <c r="L9" t="n">
-        <v>38.69200558328343</v>
+        <v>38.69200558328342</v>
       </c>
       <c r="M9" t="n">
-        <v>45.15174553168938</v>
+        <v>45.15174553168937</v>
       </c>
       <c r="N9" t="n">
-        <v>44.85274117258605</v>
+        <v>44.85274117258604</v>
       </c>
       <c r="O9" t="n">
         <v>42.3982471846556</v>
       </c>
       <c r="P9" t="n">
-        <v>27.51573784240236</v>
+        <v>27.51573784240234</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>11.06401436293224</v>
+        <v>11.06401436293223</v>
       </c>
       <c r="S9" t="n">
-        <v>3.309981691651453</v>
+        <v>3.309981691651452</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7182699349770215</v>
+        <v>0.7182699349770214</v>
       </c>
       <c r="U9" t="n">
         <v>0.01172366596806891</v>
@@ -31679,22 +31679,22 @@
         <v>1.32827213505767</v>
       </c>
       <c r="I10" t="n">
-        <v>4.492765053957844</v>
+        <v>4.492765053957843</v>
       </c>
       <c r="J10" t="n">
-        <v>10.56234396149642</v>
+        <v>10.56234396149641</v>
       </c>
       <c r="K10" t="n">
         <v>17.35717575259408</v>
       </c>
       <c r="L10" t="n">
-        <v>22.21120909686414</v>
+        <v>22.21120909686413</v>
       </c>
       <c r="M10" t="n">
         <v>23.41860575132862</v>
       </c>
       <c r="N10" t="n">
-        <v>22.8617636497196</v>
+        <v>22.86176364971959</v>
       </c>
       <c r="O10" t="n">
         <v>21.1165390141888</v>
@@ -31706,13 +31706,13 @@
         <v>12.50993316566073</v>
       </c>
       <c r="R10" t="n">
-        <v>6.717417157459336</v>
+        <v>6.717417157459335</v>
       </c>
       <c r="S10" t="n">
-        <v>2.603576362889112</v>
+        <v>2.603576362889111</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6383311896493911</v>
+        <v>0.638331189649391</v>
       </c>
       <c r="U10" t="n">
         <v>0.00814890880403479</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3582969463250127</v>
+        <v>0.5577004341200948</v>
       </c>
       <c r="H11" t="n">
-        <v>3.669408601551038</v>
+        <v>5.711549570932423</v>
       </c>
       <c r="I11" t="n">
-        <v>13.81324302319507</v>
+        <v>21.50074598641498</v>
       </c>
       <c r="J11" t="n">
-        <v>30.41000544815258</v>
+        <v>47.33412722040045</v>
       </c>
       <c r="K11" t="n">
-        <v>45.57671518609038</v>
+        <v>70.94158659670407</v>
       </c>
       <c r="L11" t="n">
-        <v>56.5419453571845</v>
+        <v>88.00931125740695</v>
       </c>
       <c r="M11" t="n">
-        <v>62.91380867639194</v>
+        <v>97.92731635269018</v>
       </c>
       <c r="N11" t="n">
-        <v>63.93181987513789</v>
+        <v>99.51188271113391</v>
       </c>
       <c r="O11" t="n">
-        <v>60.36900461511854</v>
+        <v>93.9662490193522</v>
       </c>
       <c r="P11" t="n">
-        <v>51.52354875271978</v>
+        <v>80.19801955201235</v>
       </c>
       <c r="Q11" t="n">
-        <v>38.69203936245525</v>
+        <v>60.22537275508644</v>
       </c>
       <c r="R11" t="n">
-        <v>22.5068705545886</v>
+        <v>35.03264989479644</v>
       </c>
       <c r="S11" t="n">
-        <v>8.164691664381236</v>
+        <v>12.70859864251167</v>
       </c>
       <c r="T11" t="n">
-        <v>1.568444882537744</v>
+        <v>2.441333650360717</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02866375570600101</v>
+        <v>0.04461603472960758</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1917057670832369</v>
+        <v>0.298396038878502</v>
       </c>
       <c r="H12" t="n">
-        <v>1.851474118935473</v>
+        <v>2.881877533379217</v>
       </c>
       <c r="I12" t="n">
-        <v>6.600395928085132</v>
+        <v>10.27372326840456</v>
       </c>
       <c r="J12" t="n">
-        <v>18.11199091552635</v>
+        <v>28.19188190123602</v>
       </c>
       <c r="K12" t="n">
-        <v>30.95627731010322</v>
+        <v>48.18441650609564</v>
       </c>
       <c r="L12" t="n">
-        <v>41.62453508533178</v>
+        <v>64.78989431877298</v>
       </c>
       <c r="M12" t="n">
-        <v>48.57386914209911</v>
+        <v>75.60675072811866</v>
       </c>
       <c r="N12" t="n">
-        <v>49.85947492223188</v>
+        <v>77.60783644498372</v>
       </c>
       <c r="O12" t="n">
-        <v>45.61167871475593</v>
+        <v>70.99600842562322</v>
       </c>
       <c r="P12" t="n">
-        <v>36.60739336521917</v>
+        <v>56.98055588022903</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.47107300522162</v>
+        <v>38.08999261192948</v>
       </c>
       <c r="R12" t="n">
-        <v>11.90257385451887</v>
+        <v>18.52672950159682</v>
       </c>
       <c r="S12" t="n">
-        <v>3.560850542094333</v>
+        <v>5.542575546712522</v>
       </c>
       <c r="T12" t="n">
-        <v>0.77270877170831</v>
+        <v>1.2027454374094</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01261222151863401</v>
+        <v>0.01963131834726987</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1607196753084945</v>
+        <v>0.2501652152231329</v>
       </c>
       <c r="H13" t="n">
-        <v>1.428944022288253</v>
+        <v>2.224196186256583</v>
       </c>
       <c r="I13" t="n">
-        <v>4.833278962913638</v>
+        <v>7.523150290528399</v>
       </c>
       <c r="J13" t="n">
-        <v>11.36288104431056</v>
+        <v>17.68668071627549</v>
       </c>
       <c r="K13" t="n">
-        <v>18.67270409493236</v>
+        <v>29.06464955046943</v>
       </c>
       <c r="L13" t="n">
-        <v>23.8946324545011</v>
+        <v>37.19274481599196</v>
       </c>
       <c r="M13" t="n">
-        <v>25.19353964858519</v>
+        <v>39.21453460084073</v>
       </c>
       <c r="N13" t="n">
-        <v>24.59449358607174</v>
+        <v>38.28210061682726</v>
       </c>
       <c r="O13" t="n">
-        <v>22.71699556087704</v>
+        <v>35.3597160571752</v>
       </c>
       <c r="P13" t="n">
-        <v>19.43831418458374</v>
+        <v>30.25634566662326</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.4580811751504</v>
+        <v>20.94792543109343</v>
       </c>
       <c r="R13" t="n">
-        <v>7.226541037052853</v>
+        <v>11.24833776812377</v>
       </c>
       <c r="S13" t="n">
-        <v>2.800905614239854</v>
+        <v>4.359697432570415</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6867113399544765</v>
+        <v>1.068887737771568</v>
       </c>
       <c r="U13" t="n">
-        <v>0.008766527744099714</v>
+        <v>0.01364537537580726</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3582969463250127</v>
+        <v>0.5577004341200948</v>
       </c>
       <c r="H14" t="n">
-        <v>3.669408601551038</v>
+        <v>5.711549570932423</v>
       </c>
       <c r="I14" t="n">
-        <v>13.81324302319507</v>
+        <v>21.50074598641498</v>
       </c>
       <c r="J14" t="n">
-        <v>30.41000544815258</v>
+        <v>47.33412722040045</v>
       </c>
       <c r="K14" t="n">
-        <v>45.57671518609038</v>
+        <v>70.94158659670407</v>
       </c>
       <c r="L14" t="n">
-        <v>56.5419453571845</v>
+        <v>88.00931125740695</v>
       </c>
       <c r="M14" t="n">
-        <v>62.91380867639194</v>
+        <v>97.92731635269018</v>
       </c>
       <c r="N14" t="n">
-        <v>63.93181987513789</v>
+        <v>99.51188271113391</v>
       </c>
       <c r="O14" t="n">
-        <v>60.36900461511854</v>
+        <v>93.9662490193522</v>
       </c>
       <c r="P14" t="n">
-        <v>51.52354875271978</v>
+        <v>80.19801955201235</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.69203936245525</v>
+        <v>60.22537275508644</v>
       </c>
       <c r="R14" t="n">
-        <v>22.5068705545886</v>
+        <v>35.03264989479644</v>
       </c>
       <c r="S14" t="n">
-        <v>8.164691664381236</v>
+        <v>12.70859864251167</v>
       </c>
       <c r="T14" t="n">
-        <v>1.568444882537744</v>
+        <v>2.441333650360717</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02866375570600101</v>
+        <v>0.04461603472960758</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1917057670832369</v>
+        <v>0.298396038878502</v>
       </c>
       <c r="H15" t="n">
-        <v>1.851474118935473</v>
+        <v>2.881877533379217</v>
       </c>
       <c r="I15" t="n">
-        <v>6.600395928085132</v>
+        <v>10.27372326840456</v>
       </c>
       <c r="J15" t="n">
-        <v>18.11199091552635</v>
+        <v>28.19188190123602</v>
       </c>
       <c r="K15" t="n">
-        <v>30.95627731010322</v>
+        <v>48.18441650609564</v>
       </c>
       <c r="L15" t="n">
-        <v>41.62453508533178</v>
+        <v>64.78989431877298</v>
       </c>
       <c r="M15" t="n">
-        <v>48.57386914209911</v>
+        <v>75.60675072811866</v>
       </c>
       <c r="N15" t="n">
-        <v>49.85947492223188</v>
+        <v>77.60783644498372</v>
       </c>
       <c r="O15" t="n">
-        <v>45.61167871475593</v>
+        <v>70.99600842562322</v>
       </c>
       <c r="P15" t="n">
-        <v>36.60739336521917</v>
+        <v>56.98055588022903</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.47107300522162</v>
+        <v>38.08999261192948</v>
       </c>
       <c r="R15" t="n">
-        <v>11.90257385451887</v>
+        <v>18.52672950159682</v>
       </c>
       <c r="S15" t="n">
-        <v>3.560850542094333</v>
+        <v>5.542575546712522</v>
       </c>
       <c r="T15" t="n">
-        <v>0.77270877170831</v>
+        <v>1.2027454374094</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01261222151863401</v>
+        <v>0.01963131834726987</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1607196753084945</v>
+        <v>0.2501652152231329</v>
       </c>
       <c r="H16" t="n">
-        <v>1.428944022288253</v>
+        <v>2.224196186256583</v>
       </c>
       <c r="I16" t="n">
-        <v>4.833278962913638</v>
+        <v>7.523150290528399</v>
       </c>
       <c r="J16" t="n">
-        <v>11.36288104431056</v>
+        <v>17.68668071627549</v>
       </c>
       <c r="K16" t="n">
-        <v>18.67270409493236</v>
+        <v>29.06464955046943</v>
       </c>
       <c r="L16" t="n">
-        <v>23.8946324545011</v>
+        <v>37.19274481599196</v>
       </c>
       <c r="M16" t="n">
-        <v>25.19353964858519</v>
+        <v>39.21453460084073</v>
       </c>
       <c r="N16" t="n">
-        <v>24.59449358607174</v>
+        <v>38.28210061682726</v>
       </c>
       <c r="O16" t="n">
-        <v>22.71699556087704</v>
+        <v>35.3597160571752</v>
       </c>
       <c r="P16" t="n">
-        <v>19.43831418458374</v>
+        <v>30.25634566662326</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.4580811751504</v>
+        <v>20.94792543109343</v>
       </c>
       <c r="R16" t="n">
-        <v>7.226541037052853</v>
+        <v>11.24833776812377</v>
       </c>
       <c r="S16" t="n">
-        <v>2.800905614239854</v>
+        <v>4.359697432570415</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6867113399544765</v>
+        <v>1.068887737771568</v>
       </c>
       <c r="U16" t="n">
-        <v>0.008766527744099714</v>
+        <v>0.01364537537580726</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.896126127850683</v>
+        <v>0.8961261278506831</v>
       </c>
       <c r="H17" t="n">
-        <v>9.17745170685081</v>
+        <v>9.177451706850812</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
-        <v>76.05758494366698</v>
+        <v>76.057584943667</v>
       </c>
       <c r="K17" t="n">
         <v>113.9906039355864</v>
@@ -32253,22 +32253,22 @@
         <v>150.9871711239019</v>
       </c>
       <c r="P17" t="n">
-        <v>128.8640573425881</v>
+        <v>128.8640573425882</v>
       </c>
       <c r="Q17" t="n">
-        <v>96.77154038893552</v>
+        <v>96.77154038893553</v>
       </c>
       <c r="R17" t="n">
-        <v>56.29128287860052</v>
+        <v>56.29128287860053</v>
       </c>
       <c r="S17" t="n">
         <v>20.42047413839746</v>
       </c>
       <c r="T17" t="n">
-        <v>3.922792124666367</v>
+        <v>3.922792124666368</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07169009022805463</v>
+        <v>0.07169009022805464</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4794697485004861</v>
+        <v>0.4794697485004862</v>
       </c>
       <c r="H18" t="n">
         <v>4.630668360517854</v>
       </c>
       <c r="I18" t="n">
-        <v>16.508059323372</v>
+        <v>16.50805932337201</v>
       </c>
       <c r="J18" t="n">
-        <v>45.29937654582883</v>
+        <v>45.29937654582884</v>
       </c>
       <c r="K18" t="n">
-        <v>77.4238496953614</v>
+        <v>77.42384969536141</v>
       </c>
       <c r="L18" t="n">
         <v>104.1059206119148</v>
@@ -32326,22 +32326,22 @@
         <v>121.4866989950574</v>
       </c>
       <c r="N18" t="n">
-        <v>124.7020904225014</v>
+        <v>124.7020904225015</v>
       </c>
       <c r="O18" t="n">
         <v>114.0780502057275</v>
       </c>
       <c r="P18" t="n">
-        <v>91.55769258865863</v>
+        <v>91.55769258865864</v>
       </c>
       <c r="Q18" t="n">
-        <v>61.20389280858838</v>
+        <v>61.20389280858839</v>
       </c>
       <c r="R18" t="n">
         <v>29.76918315689862</v>
       </c>
       <c r="S18" t="n">
-        <v>8.905940284647182</v>
+        <v>8.905940284647183</v>
       </c>
       <c r="T18" t="n">
         <v>1.932599556455906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.401971330710071</v>
+        <v>0.4019713307100711</v>
       </c>
       <c r="H19" t="n">
-        <v>3.573890558494997</v>
+        <v>3.573890558494998</v>
       </c>
       <c r="I19" t="n">
         <v>12.08837419989923</v>
@@ -32399,10 +32399,10 @@
         <v>46.70176005886097</v>
       </c>
       <c r="L19" t="n">
-        <v>59.76217402211365</v>
+        <v>59.76217402211366</v>
       </c>
       <c r="M19" t="n">
-        <v>63.01083323121594</v>
+        <v>63.01083323121595</v>
       </c>
       <c r="N19" t="n">
         <v>61.51257645311482</v>
@@ -32414,13 +32414,13 @@
         <v>48.61660530697075</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.65961751973149</v>
+        <v>33.6596175197315</v>
       </c>
       <c r="R19" t="n">
-        <v>18.07409274265464</v>
+        <v>18.07409274265465</v>
       </c>
       <c r="S19" t="n">
-        <v>7.005264008829144</v>
+        <v>7.005264008829145</v>
       </c>
       <c r="T19" t="n">
         <v>1.717513867579394</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8961261278506832</v>
+        <v>0.8961261278506829</v>
       </c>
       <c r="H20" t="n">
-        <v>9.177451706850812</v>
+        <v>9.177451706850809</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396349</v>
       </c>
       <c r="J20" t="n">
-        <v>76.057584943667</v>
+        <v>76.05758494366697</v>
       </c>
       <c r="K20" t="n">
         <v>113.9906039355864</v>
@@ -32481,31 +32481,31 @@
         <v>141.4154239207968</v>
       </c>
       <c r="M20" t="n">
-        <v>157.3519069469614</v>
+        <v>157.3519069469613</v>
       </c>
       <c r="N20" t="n">
-        <v>159.8980253077172</v>
+        <v>159.8980253077171</v>
       </c>
       <c r="O20" t="n">
         <v>150.9871711239019</v>
       </c>
       <c r="P20" t="n">
-        <v>128.8640573425882</v>
+        <v>128.8640573425881</v>
       </c>
       <c r="Q20" t="n">
-        <v>96.77154038893555</v>
+        <v>96.77154038893551</v>
       </c>
       <c r="R20" t="n">
-        <v>56.29128287860053</v>
+        <v>56.29128287860051</v>
       </c>
       <c r="S20" t="n">
-        <v>20.42047413839747</v>
+        <v>20.42047413839746</v>
       </c>
       <c r="T20" t="n">
-        <v>3.922792124666368</v>
+        <v>3.922792124666366</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07169009022805464</v>
+        <v>0.07169009022805461</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4794697485004862</v>
+        <v>0.4794697485004861</v>
       </c>
       <c r="H21" t="n">
-        <v>4.630668360517855</v>
+        <v>4.630668360517853</v>
       </c>
       <c r="I21" t="n">
-        <v>16.50805932337201</v>
+        <v>16.508059323372</v>
       </c>
       <c r="J21" t="n">
-        <v>45.29937654582884</v>
+        <v>45.29937654582883</v>
       </c>
       <c r="K21" t="n">
-        <v>77.42384969536141</v>
+        <v>77.42384969536138</v>
       </c>
       <c r="L21" t="n">
         <v>104.1059206119148</v>
@@ -32563,28 +32563,28 @@
         <v>121.4866989950574</v>
       </c>
       <c r="N21" t="n">
-        <v>124.7020904225015</v>
+        <v>124.7020904225014</v>
       </c>
       <c r="O21" t="n">
         <v>114.0780502057275</v>
       </c>
       <c r="P21" t="n">
-        <v>91.55769258865865</v>
+        <v>91.55769258865861</v>
       </c>
       <c r="Q21" t="n">
-        <v>61.20389280858839</v>
+        <v>61.20389280858837</v>
       </c>
       <c r="R21" t="n">
-        <v>29.76918315689862</v>
+        <v>29.76918315689861</v>
       </c>
       <c r="S21" t="n">
-        <v>8.905940284647183</v>
+        <v>8.90594028464718</v>
       </c>
       <c r="T21" t="n">
-        <v>1.932599556455907</v>
+        <v>1.932599556455906</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03154406240134779</v>
+        <v>0.03154406240134778</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4019713307100711</v>
+        <v>0.401971330710071</v>
       </c>
       <c r="H22" t="n">
-        <v>3.573890558494998</v>
+        <v>3.573890558494997</v>
       </c>
       <c r="I22" t="n">
         <v>12.08837419989923</v>
       </c>
       <c r="J22" t="n">
-        <v>28.41937308120202</v>
+        <v>28.41937308120201</v>
       </c>
       <c r="K22" t="n">
-        <v>46.70176005886098</v>
+        <v>46.70176005886096</v>
       </c>
       <c r="L22" t="n">
-        <v>59.76217402211368</v>
+        <v>59.76217402211365</v>
       </c>
       <c r="M22" t="n">
-        <v>63.01083323121595</v>
+        <v>63.01083323121593</v>
       </c>
       <c r="N22" t="n">
-        <v>61.51257645311483</v>
+        <v>61.51257645311481</v>
       </c>
       <c r="O22" t="n">
-        <v>56.81682045345625</v>
+        <v>56.81682045345623</v>
       </c>
       <c r="P22" t="n">
-        <v>48.61660530697076</v>
+        <v>48.61660530697075</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.6596175197315</v>
+        <v>33.65961751973149</v>
       </c>
       <c r="R22" t="n">
-        <v>18.07409274265465</v>
+        <v>18.07409274265464</v>
       </c>
       <c r="S22" t="n">
-        <v>7.005264008829146</v>
+        <v>7.005264008829143</v>
       </c>
       <c r="T22" t="n">
         <v>1.717513867579394</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02192570894782209</v>
+        <v>0.02192570894782208</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34462,7 +34462,7 @@
         <v>317.7163223475329</v>
       </c>
       <c r="O45" t="n">
-        <v>290.6483640261491</v>
+        <v>290.6483640261492</v>
       </c>
       <c r="P45" t="n">
         <v>233.2709361433901</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.427749017872291</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>11.19778267255997</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M3" t="n">
         <v>15.05805425947912</v>
@@ -34795,7 +34795,7 @@
         <v>14.88217059581976</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.413052713569799</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.799631206432593</v>
+        <v>3.799631206432586</v>
       </c>
       <c r="L5" t="n">
-        <v>10.77088587362581</v>
+        <v>10.77088587362579</v>
       </c>
       <c r="M5" t="n">
-        <v>17.18295210907283</v>
+        <v>17.18295210907282</v>
       </c>
       <c r="N5" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="O5" t="n">
-        <v>15.01416230587071</v>
+        <v>15.0141623058707</v>
       </c>
       <c r="P5" t="n">
-        <v>7.151197092856002</v>
+        <v>7.151197092855995</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.473289392418835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>13.61833703813651</v>
+        <v>9.270525416508193</v>
       </c>
       <c r="M6" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="N6" t="n">
-        <v>9.397206256252952</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="O6" t="n">
-        <v>16.42269341674559</v>
+        <v>16.42269341674558</v>
       </c>
       <c r="P6" t="n">
         <v>10.00730248430402</v>
@@ -35105,7 +35105,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.601085442230989</v>
+        <v>0.6010854422309855</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.601146109817535</v>
+        <v>6.601146109817527</v>
       </c>
       <c r="L8" t="n">
-        <v>14.24641283816827</v>
+        <v>14.24641283816825</v>
       </c>
       <c r="M8" t="n">
-        <v>21.05014551947929</v>
+        <v>21.05014551947927</v>
       </c>
       <c r="N8" t="n">
-        <v>22.14807591311318</v>
+        <v>22.14807591311317</v>
       </c>
       <c r="O8" t="n">
-        <v>18.72493140015998</v>
+        <v>18.72493140015997</v>
       </c>
       <c r="P8" t="n">
-        <v>10.3182526631547</v>
+        <v>10.31825266315469</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.376113496426196</v>
+        <v>6.376113496426193</v>
       </c>
       <c r="L9" t="n">
-        <v>16.17691886905387</v>
+        <v>16.17691886905386</v>
       </c>
       <c r="M9" t="n">
-        <v>22.0549650193614</v>
+        <v>22.05496501936139</v>
       </c>
       <c r="N9" t="n">
-        <v>23.50971295904439</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="O9" t="n">
-        <v>19.22635746243338</v>
+        <v>19.22635746243337</v>
       </c>
       <c r="P9" t="n">
-        <v>5.744896637573695</v>
+        <v>5.744896637573681</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,13 +35336,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2924492011629169</v>
+        <v>0.2924492011629134</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8431658598428022</v>
+        <v>0.8431658598427987</v>
       </c>
       <c r="N10" t="n">
-        <v>2.112862674119203</v>
+        <v>2.112862674119199</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9900459625660538</v>
+        <v>17.91416773481392</v>
       </c>
       <c r="K11" t="n">
-        <v>9.812114391281035</v>
+        <v>35.17698580189473</v>
       </c>
       <c r="L11" t="n">
-        <v>18.22990292456158</v>
+        <v>49.69726882478403</v>
       </c>
       <c r="M11" t="n">
-        <v>25.48254577696013</v>
+        <v>60.49605345325837</v>
       </c>
       <c r="N11" t="n">
-        <v>26.65219704069187</v>
+        <v>62.23225987668788</v>
       </c>
       <c r="O11" t="n">
-        <v>22.97804525909444</v>
+        <v>56.57528966332811</v>
       </c>
       <c r="P11" t="n">
-        <v>13.94818694248848</v>
+        <v>42.62265774178105</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.567364757857206</v>
+        <v>24.1006981504884</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>7.580767567902679</v>
       </c>
       <c r="K12" t="n">
-        <v>8.557043476769884</v>
+        <v>25.78518267276231</v>
       </c>
       <c r="L12" t="n">
-        <v>19.10944837110222</v>
+        <v>42.27480760454343</v>
       </c>
       <c r="M12" t="n">
-        <v>25.47708862977113</v>
+        <v>52.50997021579067</v>
       </c>
       <c r="N12" t="n">
-        <v>28.51644670869021</v>
+        <v>56.26480823144205</v>
       </c>
       <c r="O12" t="n">
-        <v>22.43978899253371</v>
+        <v>47.824118703401</v>
       </c>
       <c r="P12" t="n">
-        <v>14.8365521603905</v>
+        <v>35.20971467540036</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.724034716243118</v>
+        <v>15.34295432295098</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>8.099995097757436</v>
       </c>
       <c r="L13" t="n">
-        <v>1.975872558799875</v>
+        <v>15.27398492029074</v>
       </c>
       <c r="M13" t="n">
-        <v>2.618099757099376</v>
+        <v>16.63909470935491</v>
       </c>
       <c r="N13" t="n">
-        <v>3.845592610471343</v>
+        <v>17.53319964122687</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2178080624525869</v>
+        <v>12.86052855875075</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>7.875545008636777</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9900459625660538</v>
+        <v>17.91416773481392</v>
       </c>
       <c r="K14" t="n">
-        <v>9.812114391281035</v>
+        <v>35.17698580189473</v>
       </c>
       <c r="L14" t="n">
-        <v>18.22990292456158</v>
+        <v>49.69726882478403</v>
       </c>
       <c r="M14" t="n">
-        <v>25.48254577696013</v>
+        <v>60.49605345325837</v>
       </c>
       <c r="N14" t="n">
-        <v>26.65219704069187</v>
+        <v>62.23225987668788</v>
       </c>
       <c r="O14" t="n">
-        <v>22.97804525909444</v>
+        <v>56.57528966332811</v>
       </c>
       <c r="P14" t="n">
-        <v>13.94818694248848</v>
+        <v>42.62265774178105</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.567364757857206</v>
+        <v>24.1006981504884</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>7.580767567902679</v>
       </c>
       <c r="K15" t="n">
-        <v>8.557043476769884</v>
+        <v>25.78518267276231</v>
       </c>
       <c r="L15" t="n">
-        <v>19.10944837110222</v>
+        <v>42.27480760454343</v>
       </c>
       <c r="M15" t="n">
-        <v>25.47708862977113</v>
+        <v>52.50997021579067</v>
       </c>
       <c r="N15" t="n">
-        <v>28.51644670869021</v>
+        <v>56.26480823144205</v>
       </c>
       <c r="O15" t="n">
-        <v>22.43978899253371</v>
+        <v>47.824118703401</v>
       </c>
       <c r="P15" t="n">
-        <v>14.8365521603905</v>
+        <v>35.20971467540036</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.724034716243118</v>
+        <v>15.34295432295098</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>8.099995097757436</v>
       </c>
       <c r="L16" t="n">
-        <v>1.975872558799875</v>
+        <v>15.27398492029074</v>
       </c>
       <c r="M16" t="n">
-        <v>2.618099757099376</v>
+        <v>16.63909470935491</v>
       </c>
       <c r="N16" t="n">
-        <v>3.845592610471343</v>
+        <v>17.53319964122687</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2178080624525869</v>
+        <v>12.86052855875075</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>7.875545008636777</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>46.63762545808046</v>
+        <v>46.63762545808047</v>
       </c>
       <c r="K17" t="n">
-        <v>78.22600314077708</v>
+        <v>78.2260031407771</v>
       </c>
       <c r="L17" t="n">
         <v>103.1033814881739</v>
@@ -35901,13 +35901,13 @@
         <v>113.5962117678778</v>
       </c>
       <c r="P17" t="n">
-        <v>91.28869553235683</v>
+        <v>91.28869553235685</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.64686578433748</v>
+        <v>60.64686578433749</v>
       </c>
       <c r="R17" t="n">
-        <v>21.25863298380405</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3356725733720012</v>
+        <v>0.3356725733720047</v>
       </c>
       <c r="J18" t="n">
-        <v>24.68826221249549</v>
+        <v>24.6882622124955</v>
       </c>
       <c r="K18" t="n">
-        <v>55.02461586202806</v>
+        <v>55.02461586202807</v>
       </c>
       <c r="L18" t="n">
-        <v>81.59083389768521</v>
+        <v>81.59083389768523</v>
       </c>
       <c r="M18" t="n">
-        <v>98.38991848272939</v>
+        <v>98.3899184827294</v>
       </c>
       <c r="N18" t="n">
         <v>103.3590622089598</v>
       </c>
       <c r="O18" t="n">
-        <v>90.90616048350529</v>
+        <v>90.9061604835053</v>
       </c>
       <c r="P18" t="n">
         <v>69.78685138382997</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.45685451960988</v>
+        <v>38.45685451960989</v>
       </c>
       <c r="R18" t="n">
-        <v>6.096263762754472</v>
+        <v>6.096263762754475</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>7.78261709730015</v>
+        <v>7.782617097300154</v>
       </c>
       <c r="K19" t="n">
         <v>25.73710560614897</v>
       </c>
       <c r="L19" t="n">
-        <v>37.84341412641243</v>
+        <v>37.84341412641244</v>
       </c>
       <c r="M19" t="n">
         <v>40.43539333973013</v>
@@ -36056,13 +36056,13 @@
         <v>40.76367547751443</v>
       </c>
       <c r="O19" t="n">
-        <v>34.31763295503178</v>
+        <v>34.3176329550318</v>
       </c>
       <c r="P19" t="n">
-        <v>26.23580464898426</v>
+        <v>26.23580464898427</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.040054754946542</v>
+        <v>9.040054754946549</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>46.63762545808047</v>
+        <v>46.63762545808044</v>
       </c>
       <c r="K20" t="n">
-        <v>78.22600314077711</v>
+        <v>78.22600314077707</v>
       </c>
       <c r="L20" t="n">
         <v>103.1033814881739</v>
       </c>
       <c r="M20" t="n">
-        <v>119.9206440475296</v>
+        <v>119.9206440475295</v>
       </c>
       <c r="N20" t="n">
         <v>122.6184024732711</v>
@@ -36138,13 +36138,13 @@
         <v>113.5962117678778</v>
       </c>
       <c r="P20" t="n">
-        <v>91.28869553235688</v>
+        <v>91.28869553235683</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.64686578433751</v>
+        <v>60.64686578433746</v>
       </c>
       <c r="R20" t="n">
-        <v>21.25863298380406</v>
+        <v>21.25863298380404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3356725733720047</v>
+        <v>0.3356725733719976</v>
       </c>
       <c r="J21" t="n">
-        <v>24.68826221249551</v>
+        <v>24.68826221249549</v>
       </c>
       <c r="K21" t="n">
-        <v>55.02461586202807</v>
+        <v>55.02461586202804</v>
       </c>
       <c r="L21" t="n">
-        <v>81.59083389768524</v>
+        <v>81.5908338976852</v>
       </c>
       <c r="M21" t="n">
-        <v>98.38991848272941</v>
+        <v>98.38991848272937</v>
       </c>
       <c r="N21" t="n">
         <v>103.3590622089598</v>
       </c>
       <c r="O21" t="n">
-        <v>90.90616048350532</v>
+        <v>90.90616048350527</v>
       </c>
       <c r="P21" t="n">
-        <v>69.78685138383</v>
+        <v>69.78685138382994</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.45685451960989</v>
+        <v>38.45685451960988</v>
       </c>
       <c r="R21" t="n">
-        <v>6.096263762754479</v>
+        <v>6.096263762754468</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.782617097300157</v>
+        <v>7.782617097300147</v>
       </c>
       <c r="K22" t="n">
-        <v>25.73710560614898</v>
+        <v>25.73710560614897</v>
       </c>
       <c r="L22" t="n">
-        <v>37.84341412641245</v>
+        <v>37.84341412641243</v>
       </c>
       <c r="M22" t="n">
-        <v>40.43539333973014</v>
+        <v>40.43539333973011</v>
       </c>
       <c r="N22" t="n">
-        <v>40.76367547751444</v>
+        <v>40.76367547751442</v>
       </c>
       <c r="O22" t="n">
-        <v>34.3176329550318</v>
+        <v>34.31763295503178</v>
       </c>
       <c r="P22" t="n">
-        <v>26.23580464898428</v>
+        <v>26.23580464898426</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.040054754946556</v>
+        <v>9.040054754946542</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>296.3732941339912</v>
       </c>
       <c r="O45" t="n">
-        <v>267.4764743039269</v>
+        <v>267.476474303927</v>
       </c>
       <c r="P45" t="n">
         <v>211.5000949385614</v>
